--- a/Grid_5x5/Solutions/Solution_NDP_S063/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
+++ b/Grid_5x5/Solutions/Solution_NDP_S063/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
@@ -2723,7 +2723,7 @@
         <v>202</v>
       </c>
       <c r="C42" s="39">
-        <v>2.3367785714285714</v>
+        <v>2.33677857142857</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>42</v>
@@ -2743,7 +2743,7 @@
         <v>204</v>
       </c>
       <c r="C43" s="40">
-        <v>2.8179285714285713</v>
+        <v>2.8179285714285718</v>
       </c>
       <c r="D43" s="67" t="s">
         <v>42</v>
@@ -8585,7 +8585,7 @@
         <v>54.768000000000001</v>
       </c>
       <c r="N9" s="72">
-        <v>100.417</v>
+        <v>100.41699999999999</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -8620,7 +8620,7 @@
         <v>70</v>
       </c>
       <c r="K10" s="72">
-        <v>11.174999999999999</v>
+        <v>11.175000000000001</v>
       </c>
       <c r="L10" s="72">
         <v>35.980000000000004</v>
@@ -8743,13 +8743,13 @@
         <v>36.858000000000004</v>
       </c>
       <c r="L13" s="72">
-        <v>66.478000000000009</v>
+        <v>66.477999999999994</v>
       </c>
       <c r="M13" s="72">
-        <v>45.158999999999999</v>
+        <v>45.158999999999992</v>
       </c>
       <c r="N13" s="72">
-        <v>103.33600000000001</v>
+        <v>103.336</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -8787,13 +8787,13 @@
         <v>61.366</v>
       </c>
       <c r="L14" s="72">
-        <v>38.475999999999999</v>
+        <v>38.476000000000013</v>
       </c>
       <c r="M14" s="72">
-        <v>64.86</v>
+        <v>64.860000000000014</v>
       </c>
       <c r="N14" s="72">
-        <v>99.841999999999999</v>
+        <v>99.842000000000013</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -10088,16 +10088,16 @@
         <v>70</v>
       </c>
       <c r="K45" s="72">
-        <v>292.00100000000003</v>
+        <v>292.00099999999998</v>
       </c>
       <c r="L45" s="72">
-        <v>130.53899999999993</v>
+        <v>130.5390000000001</v>
       </c>
       <c r="M45" s="72">
-        <v>62.945000000000007</v>
+        <v>62.945</v>
       </c>
       <c r="N45" s="72">
-        <v>422.53999999999996</v>
+        <v>422.54000000000008</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -10135,13 +10135,13 @@
         <v>49.271000000000001</v>
       </c>
       <c r="L46" s="72">
-        <v>325.13100000000003</v>
+        <v>325.13099999999997</v>
       </c>
       <c r="M46" s="72">
-        <v>97.409000000000006</v>
+        <v>97.408999999999992</v>
       </c>
       <c r="N46" s="72">
-        <v>374.40200000000004</v>
+        <v>374.40199999999999</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -10179,7 +10179,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="72">
-        <v>374.40200000000004</v>
+        <v>374.40199999999999</v>
       </c>
       <c r="N47" s="72">
         <v>0</v>
@@ -10252,10 +10252,10 @@
         <v>70</v>
       </c>
       <c r="K49" s="72">
-        <v>61.344000000000008</v>
+        <v>61.343999999999994</v>
       </c>
       <c r="L49" s="72">
-        <v>35.587999999999994</v>
+        <v>35.588000000000008</v>
       </c>
       <c r="M49" s="72">
         <v>0.91200000000000003</v>
@@ -11720,7 +11720,7 @@
         <v>70</v>
       </c>
       <c r="K84" s="72">
-        <v>14.676000000000002</v>
+        <v>14.675999999999998</v>
       </c>
       <c r="L84" s="72">
         <v>0</v>
@@ -11729,7 +11729,7 @@
         <v>0</v>
       </c>
       <c r="N84" s="72">
-        <v>14.676000000000002</v>
+        <v>14.675999999999998</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -11767,13 +11767,13 @@
         <v>24.866</v>
       </c>
       <c r="L85" s="72">
-        <v>14.254000000000005</v>
+        <v>14.253999999999998</v>
       </c>
       <c r="M85" s="72">
         <v>0.42199999999999999</v>
       </c>
       <c r="N85" s="72">
-        <v>39.120000000000005</v>
+        <v>39.119999999999997</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -11852,7 +11852,7 @@
         <v>70</v>
       </c>
       <c r="K87" s="72">
-        <v>26.577999999999999</v>
+        <v>26.578000000000003</v>
       </c>
       <c r="L87" s="72">
         <v>34.025999999999996</v>
@@ -13232,7 +13232,7 @@
         <v>70</v>
       </c>
       <c r="K120" s="72">
-        <v>61.559000000000005</v>
+        <v>61.558999999999997</v>
       </c>
       <c r="L120" s="72">
         <v>0</v>
@@ -13241,7 +13241,7 @@
         <v>0</v>
       </c>
       <c r="N120" s="72">
-        <v>61.559000000000005</v>
+        <v>61.558999999999997</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
@@ -13276,16 +13276,16 @@
         <v>70</v>
       </c>
       <c r="K121" s="72">
-        <v>23.884999999999998</v>
+        <v>23.885000000000002</v>
       </c>
       <c r="L121" s="72">
-        <v>33.081000000000003</v>
+        <v>33.080999999999989</v>
       </c>
       <c r="M121" s="72">
         <v>28.478000000000002</v>
       </c>
       <c r="N121" s="72">
-        <v>56.966000000000001</v>
+        <v>56.965999999999994</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
@@ -13323,13 +13323,13 @@
         <v>34.557000000000002</v>
       </c>
       <c r="L122" s="72">
-        <v>42.518000000000001</v>
+        <v>42.517999999999986</v>
       </c>
       <c r="M122" s="72">
         <v>14.448</v>
       </c>
       <c r="N122" s="72">
-        <v>77.075000000000003</v>
+        <v>77.074999999999989</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
@@ -13364,13 +13364,13 @@
         <v>70</v>
       </c>
       <c r="K123" s="72">
-        <v>14.513999999999999</v>
+        <v>14.514000000000001</v>
       </c>
       <c r="L123" s="72">
-        <v>48.17</v>
+        <v>48.169999999999995</v>
       </c>
       <c r="M123" s="72">
-        <v>28.904999999999998</v>
+        <v>28.905000000000001</v>
       </c>
       <c r="N123" s="72">
         <v>62.683999999999997</v>
@@ -13411,13 +13411,13 @@
         <v>12.777000000000001</v>
       </c>
       <c r="L124" s="72">
-        <v>9.5129999999999981</v>
+        <v>9.5129999999999946</v>
       </c>
       <c r="M124" s="72">
         <v>53.170999999999999</v>
       </c>
       <c r="N124" s="72">
-        <v>22.29</v>
+        <v>22.289999999999996</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
@@ -13455,7 +13455,7 @@
         <v>0</v>
       </c>
       <c r="M125" s="72">
-        <v>22.29</v>
+        <v>22.289999999999996</v>
       </c>
       <c r="N125" s="72">
         <v>0</v>
@@ -14788,7 +14788,7 @@
         <v>70</v>
       </c>
       <c r="K157" s="72">
-        <v>80.268000000000001</v>
+        <v>80.268000000000015</v>
       </c>
       <c r="L157" s="72">
         <v>41.949000000000012</v>
@@ -14797,7 +14797,7 @@
         <v>0</v>
       </c>
       <c r="N157" s="72">
-        <v>122.21700000000001</v>
+        <v>122.21700000000003</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
@@ -14832,13 +14832,13 @@
         <v>70</v>
       </c>
       <c r="K158" s="72">
-        <v>101.627</v>
+        <v>101.62699999999998</v>
       </c>
       <c r="L158" s="72">
-        <v>101.383</v>
+        <v>101.38300000000001</v>
       </c>
       <c r="M158" s="72">
-        <v>20.834000000000003</v>
+        <v>20.833999999999996</v>
       </c>
       <c r="N158" s="72">
         <v>203.01</v>
@@ -14876,10 +14876,10 @@
         <v>70</v>
       </c>
       <c r="K159" s="72">
-        <v>30.787999999999997</v>
+        <v>30.788</v>
       </c>
       <c r="L159" s="72">
-        <v>23.165999999999997</v>
+        <v>23.165999999999993</v>
       </c>
       <c r="M159" s="72">
         <v>179.84399999999999</v>
@@ -14923,13 +14923,13 @@
         <v>4.2620000000000005</v>
       </c>
       <c r="L160" s="72">
-        <v>9.6550000000000011</v>
+        <v>9.6549999999999994</v>
       </c>
       <c r="M160" s="72">
         <v>44.298999999999999</v>
       </c>
       <c r="N160" s="72">
-        <v>13.917000000000002</v>
+        <v>13.917</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
@@ -14967,7 +14967,7 @@
         <v>0</v>
       </c>
       <c r="M161" s="72">
-        <v>13.917000000000002</v>
+        <v>13.917</v>
       </c>
       <c r="N161" s="72">
         <v>0</v>
@@ -15090,7 +15090,7 @@
         <v>53.77600000000001</v>
       </c>
       <c r="M164" s="72">
-        <v>13.396999999999998</v>
+        <v>13.397</v>
       </c>
       <c r="N164" s="72">
         <v>97.305000000000007</v>
@@ -15134,7 +15134,7 @@
         <v>12.599</v>
       </c>
       <c r="M165" s="72">
-        <v>84.706000000000003</v>
+        <v>84.705999999999989</v>
       </c>
       <c r="N165" s="72">
         <v>28.145</v>
@@ -15172,13 +15172,13 @@
         <v>70</v>
       </c>
       <c r="K166" s="72">
-        <v>4.1650000000000009</v>
+        <v>4.165</v>
       </c>
       <c r="L166" s="72">
         <v>19.127000000000002</v>
       </c>
       <c r="M166" s="72">
-        <v>9.0180000000000007</v>
+        <v>9.0179999999999989</v>
       </c>
       <c r="N166" s="72">
         <v>23.292000000000002</v>
@@ -17443,13 +17443,13 @@
         <v>22.118000000000002</v>
       </c>
       <c r="L220" s="72">
-        <v>58.725999999999992</v>
+        <v>58.726000000000006</v>
       </c>
       <c r="M220" s="72">
         <v>52.515000000000001</v>
       </c>
       <c r="N220" s="72">
-        <v>80.843999999999994</v>
+        <v>80.844000000000008</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.25">
@@ -17487,7 +17487,7 @@
         <v>0</v>
       </c>
       <c r="M221" s="72">
-        <v>80.843999999999994</v>
+        <v>80.844000000000008</v>
       </c>
       <c r="N221" s="72">
         <v>0</v>
@@ -17563,13 +17563,13 @@
         <v>56.010000000000005</v>
       </c>
       <c r="L223" s="72">
-        <v>62.96899999999998</v>
+        <v>62.968999999999994</v>
       </c>
       <c r="M223" s="72">
         <v>9.6690000000000005</v>
       </c>
       <c r="N223" s="72">
-        <v>118.97899999999998</v>
+        <v>118.979</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
@@ -17604,10 +17604,10 @@
         <v>70</v>
       </c>
       <c r="K224" s="72">
-        <v>47.6</v>
+        <v>47.599999999999994</v>
       </c>
       <c r="L224" s="72">
-        <v>28.073</v>
+        <v>28.073000000000008</v>
       </c>
       <c r="M224" s="72">
         <v>90.906000000000006</v>
@@ -17692,16 +17692,16 @@
         <v>70</v>
       </c>
       <c r="K226" s="72">
-        <v>24.404000000000003</v>
+        <v>24.404</v>
       </c>
       <c r="L226" s="72">
-        <v>46.860000000000007</v>
+        <v>46.86</v>
       </c>
       <c r="M226" s="72">
         <v>19.04</v>
       </c>
       <c r="N226" s="72">
-        <v>71.26400000000001</v>
+        <v>71.263999999999996</v>
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.25">
@@ -17739,7 +17739,7 @@
         <v>0</v>
       </c>
       <c r="M227" s="72">
-        <v>71.26400000000001</v>
+        <v>71.263999999999996</v>
       </c>
       <c r="N227" s="72">
         <v>0</v>
@@ -17768,7 +17768,7 @@
         <v>70</v>
       </c>
       <c r="K228" s="72">
-        <v>108.23999999999998</v>
+        <v>108.24</v>
       </c>
       <c r="L228" s="72">
         <v>0</v>
@@ -17777,7 +17777,7 @@
         <v>0</v>
       </c>
       <c r="N228" s="72">
-        <v>108.23999999999998</v>
+        <v>108.24</v>
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.25">
@@ -17821,7 +17821,7 @@
         <v>4.5019999999999998</v>
       </c>
       <c r="N229" s="72">
-        <v>127.33199999999999</v>
+        <v>127.33200000000001</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.25">
@@ -17859,13 +17859,13 @@
         <v>59.789000000000001</v>
       </c>
       <c r="L230" s="72">
-        <v>45.442999999999998</v>
+        <v>45.442999999999984</v>
       </c>
       <c r="M230" s="72">
         <v>81.88900000000001</v>
       </c>
       <c r="N230" s="72">
-        <v>105.232</v>
+        <v>105.23199999999999</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.25">
@@ -17903,13 +17903,13 @@
         <v>15.143000000000001</v>
       </c>
       <c r="L231" s="72">
-        <v>45.490000000000009</v>
+        <v>45.49</v>
       </c>
       <c r="M231" s="72">
-        <v>59.742000000000004</v>
+        <v>59.74199999999999</v>
       </c>
       <c r="N231" s="72">
-        <v>60.63300000000001</v>
+        <v>60.633000000000003</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.25">
@@ -20420,10 +20420,10 @@
         <v>70</v>
       </c>
       <c r="K291" s="72">
-        <v>35.202999999999996</v>
+        <v>35.203000000000003</v>
       </c>
       <c r="L291" s="72">
-        <v>58.049000000000014</v>
+        <v>58.049000000000007</v>
       </c>
       <c r="M291" s="72">
         <v>122.92400000000001</v>
@@ -20467,13 +20467,13 @@
         <v>7.3260000000000005</v>
       </c>
       <c r="L292" s="72">
-        <v>35.402000000000001</v>
+        <v>35.401999999999994</v>
       </c>
       <c r="M292" s="72">
-        <v>57.85</v>
+        <v>57.849999999999994</v>
       </c>
       <c r="N292" s="72">
-        <v>42.728000000000002</v>
+        <v>42.727999999999994</v>
       </c>
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.25">
@@ -20511,7 +20511,7 @@
         <v>0</v>
       </c>
       <c r="M293" s="72">
-        <v>42.728000000000002</v>
+        <v>42.727999999999994</v>
       </c>
       <c r="N293" s="72">
         <v>0</v>
@@ -20540,7 +20540,7 @@
         <v>70</v>
       </c>
       <c r="K294" s="72">
-        <v>22.684000000000005</v>
+        <v>22.684000000000001</v>
       </c>
       <c r="L294" s="72">
         <v>0</v>
@@ -20549,7 +20549,7 @@
         <v>0</v>
       </c>
       <c r="N294" s="72">
-        <v>22.684000000000005</v>
+        <v>22.684000000000001</v>
       </c>
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.25">
@@ -20628,10 +20628,10 @@
         <v>70</v>
       </c>
       <c r="K296" s="72">
-        <v>79.677000000000007</v>
+        <v>79.676999999999992</v>
       </c>
       <c r="L296" s="72">
-        <v>51.296000000000006</v>
+        <v>51.296000000000021</v>
       </c>
       <c r="M296" s="72">
         <v>14.992000000000001</v>
@@ -20719,13 +20719,13 @@
         <v>14.725000000000001</v>
       </c>
       <c r="L298" s="72">
-        <v>25.299999999999997</v>
+        <v>25.300000000000004</v>
       </c>
       <c r="M298" s="72">
         <v>41.262</v>
       </c>
       <c r="N298" s="72">
-        <v>40.024999999999999</v>
+        <v>40.025000000000006</v>
       </c>
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.25">
@@ -23060,7 +23060,7 @@
         <v>70</v>
       </c>
       <c r="K354" s="72">
-        <v>50.450999999999993</v>
+        <v>50.451000000000001</v>
       </c>
       <c r="L354" s="72">
         <v>0</v>
@@ -23069,7 +23069,7 @@
         <v>0</v>
       </c>
       <c r="N354" s="72">
-        <v>50.450999999999993</v>
+        <v>50.451000000000001</v>
       </c>
     </row>
     <row r="355" spans="1:14" x14ac:dyDescent="0.25">
@@ -23104,16 +23104,16 @@
         <v>70</v>
       </c>
       <c r="K355" s="72">
-        <v>75.157999999999987</v>
+        <v>75.158000000000001</v>
       </c>
       <c r="L355" s="72">
-        <v>41.930000000000021</v>
+        <v>41.929999999999993</v>
       </c>
       <c r="M355" s="72">
         <v>8.5210000000000008</v>
       </c>
       <c r="N355" s="72">
-        <v>117.08800000000001</v>
+        <v>117.08799999999999</v>
       </c>
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.25">
@@ -23148,13 +23148,13 @@
         <v>70</v>
       </c>
       <c r="K356" s="72">
-        <v>33.717999999999996</v>
+        <v>33.718000000000004</v>
       </c>
       <c r="L356" s="72">
-        <v>50.448</v>
+        <v>50.447999999999993</v>
       </c>
       <c r="M356" s="72">
-        <v>66.64</v>
+        <v>66.639999999999986</v>
       </c>
       <c r="N356" s="72">
         <v>84.165999999999997</v>
@@ -23195,13 +23195,13 @@
         <v>4.1950000000000003</v>
       </c>
       <c r="L357" s="72">
-        <v>43.779000000000003</v>
+        <v>43.778999999999996</v>
       </c>
       <c r="M357" s="72">
         <v>40.387</v>
       </c>
       <c r="N357" s="72">
-        <v>47.974000000000004</v>
+        <v>47.973999999999997</v>
       </c>
     </row>
     <row r="358" spans="1:14" x14ac:dyDescent="0.25">
@@ -23242,7 +23242,7 @@
         <v>4.6540000000000035</v>
       </c>
       <c r="M358" s="72">
-        <v>43.320000000000007</v>
+        <v>43.319999999999993</v>
       </c>
       <c r="N358" s="72">
         <v>18.231000000000002</v>
@@ -23312,7 +23312,7 @@
         <v>70</v>
       </c>
       <c r="K360" s="72">
-        <v>85.10799999999999</v>
+        <v>85.108000000000004</v>
       </c>
       <c r="L360" s="72">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="N360" s="72">
-        <v>85.10799999999999</v>
+        <v>85.108000000000004</v>
       </c>
     </row>
     <row r="361" spans="1:14" x14ac:dyDescent="0.25">
@@ -23356,10 +23356,10 @@
         <v>70</v>
       </c>
       <c r="K361" s="72">
-        <v>177.27500000000001</v>
+        <v>177.27499999999998</v>
       </c>
       <c r="L361" s="72">
-        <v>76.457000000000022</v>
+        <v>76.45700000000005</v>
       </c>
       <c r="M361" s="72">
         <v>8.6509999999999998</v>
@@ -23406,7 +23406,7 @@
         <v>40.668999999999997</v>
       </c>
       <c r="M362" s="72">
-        <v>213.06300000000002</v>
+        <v>213.06299999999999</v>
       </c>
       <c r="N362" s="72">
         <v>66</v>
@@ -25876,7 +25876,7 @@
         <v>70</v>
       </c>
       <c r="K421" s="72">
-        <v>28.077999999999999</v>
+        <v>28.078000000000003</v>
       </c>
       <c r="L421" s="72">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="N421" s="72">
-        <v>28.077999999999999</v>
+        <v>28.078000000000003</v>
       </c>
     </row>
     <row r="422" spans="1:14" x14ac:dyDescent="0.25">
@@ -25920,10 +25920,10 @@
         <v>70</v>
       </c>
       <c r="K422" s="72">
-        <v>41.097000000000001</v>
+        <v>41.096999999999994</v>
       </c>
       <c r="L422" s="72">
-        <v>26.987000000000002</v>
+        <v>26.987000000000009</v>
       </c>
       <c r="M422" s="72">
         <v>1.0910000000000002</v>
@@ -26011,13 +26011,13 @@
         <v>33.256</v>
       </c>
       <c r="L424" s="72">
-        <v>65.419999999999987</v>
+        <v>65.42</v>
       </c>
       <c r="M424" s="72">
         <v>38.402000000000001</v>
       </c>
       <c r="N424" s="72">
-        <v>98.675999999999988</v>
+        <v>98.676000000000002</v>
       </c>
     </row>
     <row r="425" spans="1:14" x14ac:dyDescent="0.25">
@@ -26096,10 +26096,10 @@
         <v>70</v>
       </c>
       <c r="K426" s="72">
-        <v>29.420999999999992</v>
+        <v>29.420999999999999</v>
       </c>
       <c r="L426" s="72">
-        <v>34.263000000000005</v>
+        <v>34.262999999999998</v>
       </c>
       <c r="M426" s="72">
         <v>8.0259999999999998</v>
@@ -27652,7 +27652,7 @@
         <v>70</v>
       </c>
       <c r="K463" s="72">
-        <v>114.158</v>
+        <v>114.15799999999999</v>
       </c>
       <c r="L463" s="72">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="N463" s="72">
-        <v>114.158</v>
+        <v>114.15799999999999</v>
       </c>
     </row>
     <row r="464" spans="1:14" x14ac:dyDescent="0.25">
@@ -27787,13 +27787,13 @@
         <v>12.463000000000001</v>
       </c>
       <c r="L466" s="72">
-        <v>40.711000000000006</v>
+        <v>40.710999999999999</v>
       </c>
       <c r="M466" s="72">
         <v>17.146000000000001</v>
       </c>
       <c r="N466" s="72">
-        <v>53.174000000000007</v>
+        <v>53.173999999999999</v>
       </c>
     </row>
     <row r="467" spans="1:14" x14ac:dyDescent="0.25">
@@ -27831,13 +27831,13 @@
         <v>30.64</v>
       </c>
       <c r="L467" s="72">
-        <v>31.97999999999999</v>
+        <v>31.979999999999997</v>
       </c>
       <c r="M467" s="72">
-        <v>21.194000000000003</v>
+        <v>21.193999999999999</v>
       </c>
       <c r="N467" s="72">
-        <v>62.61999999999999</v>
+        <v>62.62</v>
       </c>
     </row>
     <row r="468" spans="1:14" x14ac:dyDescent="0.25">
@@ -27875,13 +27875,13 @@
         <v>0.90400000000000003</v>
       </c>
       <c r="L468" s="72">
-        <v>37.474999999999994</v>
+        <v>37.475000000000001</v>
       </c>
       <c r="M468" s="72">
-        <v>25.145000000000003</v>
+        <v>25.145</v>
       </c>
       <c r="N468" s="72">
-        <v>38.378999999999998</v>
+        <v>38.379000000000005</v>
       </c>
     </row>
     <row r="469" spans="1:14" x14ac:dyDescent="0.25">
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="M469" s="72">
-        <v>38.378999999999998</v>
+        <v>38.379000000000005</v>
       </c>
       <c r="N469" s="72">
         <v>0</v>
@@ -29472,7 +29472,7 @@
         <v>70</v>
       </c>
       <c r="K506" s="72">
-        <v>9.7020000000000017</v>
+        <v>9.702</v>
       </c>
       <c r="L506" s="72">
         <v>50.179999999999993</v>
@@ -29516,10 +29516,10 @@
         <v>70</v>
       </c>
       <c r="K507" s="72">
-        <v>189.87300000000005</v>
+        <v>189.87300000000002</v>
       </c>
       <c r="L507" s="72">
-        <v>36.650999999999982</v>
+        <v>36.65100000000001</v>
       </c>
       <c r="M507" s="72">
         <v>23.231000000000002</v>
@@ -29560,16 +29560,16 @@
         <v>70</v>
       </c>
       <c r="K508" s="72">
-        <v>40.286999999999999</v>
+        <v>40.286999999999992</v>
       </c>
       <c r="L508" s="72">
-        <v>159.76199999999997</v>
+        <v>159.762</v>
       </c>
       <c r="M508" s="72">
         <v>66.762</v>
       </c>
       <c r="N508" s="72">
-        <v>200.04899999999998</v>
+        <v>200.04900000000001</v>
       </c>
     </row>
     <row r="509" spans="1:14" x14ac:dyDescent="0.25">
@@ -29607,7 +29607,7 @@
         <v>0</v>
       </c>
       <c r="M509" s="72">
-        <v>200.04899999999998</v>
+        <v>200.04900000000001</v>
       </c>
       <c r="N509" s="72">
         <v>0</v>
@@ -30940,13 +30940,13 @@
         <v>70</v>
       </c>
       <c r="K541" s="72">
-        <v>36.884999999999998</v>
+        <v>36.885000000000005</v>
       </c>
       <c r="L541" s="72">
-        <v>44.814999999999991</v>
+        <v>44.814999999999984</v>
       </c>
       <c r="M541" s="72">
-        <v>25.617999999999999</v>
+        <v>25.618000000000002</v>
       </c>
       <c r="N541" s="72">
         <v>81.699999999999989</v>
@@ -30984,10 +30984,10 @@
         <v>70</v>
       </c>
       <c r="K542" s="72">
-        <v>130.792</v>
+        <v>130.79200000000003</v>
       </c>
       <c r="L542" s="72">
-        <v>45.360000000000014</v>
+        <v>45.359999999999985</v>
       </c>
       <c r="M542" s="72">
         <v>36.340000000000003</v>
@@ -31031,13 +31031,13 @@
         <v>28.914999999999999</v>
       </c>
       <c r="L543" s="72">
-        <v>166.48800000000003</v>
+        <v>166.488</v>
       </c>
       <c r="M543" s="72">
-        <v>9.6639999999999979</v>
+        <v>9.6639999999999997</v>
       </c>
       <c r="N543" s="72">
-        <v>195.40300000000002</v>
+        <v>195.40299999999999</v>
       </c>
     </row>
     <row r="544" spans="1:14" x14ac:dyDescent="0.25">
@@ -31075,13 +31075,13 @@
         <v>4.8529999999999998</v>
       </c>
       <c r="L544" s="72">
-        <v>94.696000000000012</v>
+        <v>94.696000000000026</v>
       </c>
       <c r="M544" s="72">
-        <v>100.70700000000001</v>
+        <v>100.70699999999999</v>
       </c>
       <c r="N544" s="72">
-        <v>99.549000000000007</v>
+        <v>99.549000000000021</v>
       </c>
     </row>
     <row r="545" spans="1:14" x14ac:dyDescent="0.25">
@@ -31119,7 +31119,7 @@
         <v>0</v>
       </c>
       <c r="M545" s="72">
-        <v>99.549000000000007</v>
+        <v>99.549000000000021</v>
       </c>
       <c r="N545" s="72">
         <v>0</v>
@@ -32200,16 +32200,16 @@
         <v>70</v>
       </c>
       <c r="K571" s="72">
-        <v>175.95899999999997</v>
+        <v>175.959</v>
       </c>
       <c r="L571" s="72">
-        <v>70.888000000000005</v>
+        <v>70.888000000000034</v>
       </c>
       <c r="M571" s="72">
         <v>1.75</v>
       </c>
       <c r="N571" s="72">
-        <v>246.84699999999998</v>
+        <v>246.84700000000004</v>
       </c>
     </row>
     <row r="572" spans="1:14" x14ac:dyDescent="0.25">
@@ -32244,7 +32244,7 @@
         <v>70</v>
       </c>
       <c r="K572" s="72">
-        <v>34.506999999999998</v>
+        <v>34.507000000000005</v>
       </c>
       <c r="L572" s="72">
         <v>109.75</v>
@@ -32294,7 +32294,7 @@
         <v>82.105000000000018</v>
       </c>
       <c r="M573" s="72">
-        <v>62.152000000000008</v>
+        <v>62.152000000000001</v>
       </c>
       <c r="N573" s="72">
         <v>139.62200000000001</v>
@@ -32338,7 +32338,7 @@
         <v>104.09699999999999</v>
       </c>
       <c r="M574" s="72">
-        <v>35.524999999999991</v>
+        <v>35.524999999999999</v>
       </c>
       <c r="N574" s="72">
         <v>109.60599999999999</v>
@@ -32452,7 +32452,7 @@
         <v>70</v>
       </c>
       <c r="K577" s="72">
-        <v>52.698</v>
+        <v>52.697999999999993</v>
       </c>
       <c r="L577" s="72">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="N577" s="72">
-        <v>52.698</v>
+        <v>52.697999999999993</v>
       </c>
     </row>
     <row r="578" spans="1:14" x14ac:dyDescent="0.25">
@@ -34228,7 +34228,7 @@
         <v>70</v>
       </c>
       <c r="K619" s="72">
-        <v>52.232000000000006</v>
+        <v>52.231999999999999</v>
       </c>
       <c r="L619" s="72">
         <v>0</v>
@@ -34237,7 +34237,7 @@
         <v>0</v>
       </c>
       <c r="N619" s="72">
-        <v>52.232000000000006</v>
+        <v>52.231999999999999</v>
       </c>
     </row>
     <row r="620" spans="1:14" x14ac:dyDescent="0.25">
@@ -34319,13 +34319,13 @@
         <v>34.048000000000002</v>
       </c>
       <c r="L621" s="72">
-        <v>65.048999999999992</v>
+        <v>65.049000000000007</v>
       </c>
       <c r="M621" s="72">
         <v>3.5590000000000002</v>
       </c>
       <c r="N621" s="72">
-        <v>99.096999999999994</v>
+        <v>99.097000000000008</v>
       </c>
     </row>
     <row r="622" spans="1:14" x14ac:dyDescent="0.25">
@@ -34410,7 +34410,7 @@
         <v>38.000999999999998</v>
       </c>
       <c r="M623" s="72">
-        <v>146.15799999999999</v>
+        <v>146.15800000000002</v>
       </c>
       <c r="N623" s="72">
         <v>48.695999999999998</v>
@@ -35884,10 +35884,10 @@
         <v>70</v>
       </c>
       <c r="K658" s="72">
-        <v>90.710000000000008</v>
+        <v>90.71</v>
       </c>
       <c r="L658" s="72">
-        <v>72.912999999999982</v>
+        <v>72.912999999999997</v>
       </c>
       <c r="M658" s="72">
         <v>46.794000000000004</v>
@@ -35928,13 +35928,13 @@
         <v>70</v>
       </c>
       <c r="K659" s="72">
-        <v>75.646000000000001</v>
+        <v>75.646000000000015</v>
       </c>
       <c r="L659" s="72">
-        <v>112.34699999999999</v>
+        <v>112.34699999999998</v>
       </c>
       <c r="M659" s="72">
-        <v>51.276000000000003</v>
+        <v>51.275999999999996</v>
       </c>
       <c r="N659" s="72">
         <v>187.99299999999999</v>
@@ -36004,7 +36004,7 @@
         <v>70</v>
       </c>
       <c r="K661" s="72">
-        <v>89.018999999999991</v>
+        <v>89.019000000000005</v>
       </c>
       <c r="L661" s="72">
         <v>0</v>
@@ -36013,7 +36013,7 @@
         <v>0</v>
       </c>
       <c r="N661" s="72">
-        <v>89.018999999999991</v>
+        <v>89.019000000000005</v>
       </c>
     </row>
     <row r="662" spans="1:14" x14ac:dyDescent="0.25">
@@ -36092,10 +36092,10 @@
         <v>70</v>
       </c>
       <c r="K663" s="72">
-        <v>16.675000000000001</v>
+        <v>16.674999999999997</v>
       </c>
       <c r="L663" s="72">
-        <v>129.23499999999999</v>
+        <v>129.23500000000001</v>
       </c>
       <c r="M663" s="72">
         <v>7.8559999999999999</v>
@@ -36136,16 +36136,16 @@
         <v>70</v>
       </c>
       <c r="K664" s="72">
-        <v>22.790000000000003</v>
+        <v>22.79</v>
       </c>
       <c r="L664" s="72">
-        <v>53.171999999999983</v>
+        <v>53.172000000000004</v>
       </c>
       <c r="M664" s="72">
         <v>92.738</v>
       </c>
       <c r="N664" s="72">
-        <v>75.961999999999989</v>
+        <v>75.962000000000003</v>
       </c>
     </row>
     <row r="665" spans="1:14" x14ac:dyDescent="0.25">
@@ -37707,13 +37707,13 @@
         <v>1.3759999999999999</v>
       </c>
       <c r="L701" s="72">
-        <v>46.725999999999999</v>
+        <v>46.726000000000006</v>
       </c>
       <c r="M701" s="72">
         <v>26.448</v>
       </c>
       <c r="N701" s="72">
-        <v>48.101999999999997</v>
+        <v>48.102000000000004</v>
       </c>
     </row>
     <row r="702" spans="1:14" x14ac:dyDescent="0.25">
@@ -37751,7 +37751,7 @@
         <v>0</v>
       </c>
       <c r="M702" s="72">
-        <v>48.101999999999997</v>
+        <v>48.102000000000004</v>
       </c>
       <c r="N702" s="72">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>70</v>
       </c>
       <c r="K703" s="72">
-        <v>65.962999999999994</v>
+        <v>65.963000000000008</v>
       </c>
       <c r="L703" s="72">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N703" s="72">
-        <v>65.962999999999994</v>
+        <v>65.963000000000008</v>
       </c>
     </row>
     <row r="704" spans="1:14" x14ac:dyDescent="0.25">
@@ -37827,13 +37827,13 @@
         <v>18.899000000000001</v>
       </c>
       <c r="L704" s="72">
-        <v>43.971999999999994</v>
+        <v>43.972000000000001</v>
       </c>
       <c r="M704" s="72">
         <v>21.991</v>
       </c>
       <c r="N704" s="72">
-        <v>62.870999999999995</v>
+        <v>62.871000000000002</v>
       </c>
     </row>
     <row r="705" spans="1:14" x14ac:dyDescent="0.25">
@@ -37912,10 +37912,10 @@
         <v>70</v>
       </c>
       <c r="K706" s="72">
-        <v>24.785</v>
+        <v>24.785000000000004</v>
       </c>
       <c r="L706" s="72">
-        <v>35.379000000000005</v>
+        <v>35.378999999999998</v>
       </c>
       <c r="M706" s="72">
         <v>29.391999999999999</v>
@@ -39348,10 +39348,10 @@
         <v>70</v>
       </c>
       <c r="K740" s="72">
-        <v>64.55</v>
+        <v>64.550000000000011</v>
       </c>
       <c r="L740" s="72">
-        <v>41.51100000000001</v>
+        <v>41.510999999999996</v>
       </c>
       <c r="M740" s="72">
         <v>5.58</v>
@@ -39392,10 +39392,10 @@
         <v>70</v>
       </c>
       <c r="K741" s="72">
-        <v>74.027999999999992</v>
+        <v>74.028000000000006</v>
       </c>
       <c r="L741" s="72">
-        <v>90.885999999999996</v>
+        <v>90.885999999999981</v>
       </c>
       <c r="M741" s="72">
         <v>15.175000000000001</v>
@@ -39439,13 +39439,13 @@
         <v>64.268000000000001</v>
       </c>
       <c r="L742" s="72">
-        <v>62.853999999999999</v>
+        <v>62.853999999999985</v>
       </c>
       <c r="M742" s="72">
         <v>102.06</v>
       </c>
       <c r="N742" s="72">
-        <v>127.122</v>
+        <v>127.12199999999999</v>
       </c>
     </row>
     <row r="743" spans="1:14" x14ac:dyDescent="0.25">
@@ -39483,13 +39483,13 @@
         <v>45.563000000000002</v>
       </c>
       <c r="L743" s="72">
-        <v>90.813000000000031</v>
+        <v>90.812999999999974</v>
       </c>
       <c r="M743" s="72">
         <v>36.308999999999997</v>
       </c>
       <c r="N743" s="72">
-        <v>136.37600000000003</v>
+        <v>136.37599999999998</v>
       </c>
     </row>
     <row r="744" spans="1:14" x14ac:dyDescent="0.25">
@@ -39527,7 +39527,7 @@
         <v>0</v>
       </c>
       <c r="M744" s="72">
-        <v>136.37600000000003</v>
+        <v>136.37599999999998</v>
       </c>
       <c r="N744" s="72">
         <v>0</v>
@@ -39600,16 +39600,16 @@
         <v>70</v>
       </c>
       <c r="K746" s="72">
-        <v>9.17</v>
+        <v>9.1700000000000017</v>
       </c>
       <c r="L746" s="72">
-        <v>30.751999999999995</v>
+        <v>30.752000000000002</v>
       </c>
       <c r="M746" s="72">
         <v>23.917999999999999</v>
       </c>
       <c r="N746" s="72">
-        <v>39.921999999999997</v>
+        <v>39.922000000000004</v>
       </c>
     </row>
     <row r="747" spans="1:14" x14ac:dyDescent="0.25">
@@ -41332,7 +41332,7 @@
         <v>70</v>
       </c>
       <c r="K787" s="72">
-        <v>129.24799999999999</v>
+        <v>129.24800000000002</v>
       </c>
       <c r="L787" s="72">
         <v>0</v>
@@ -41341,7 +41341,7 @@
         <v>0</v>
       </c>
       <c r="N787" s="72">
-        <v>129.24799999999999</v>
+        <v>129.24800000000002</v>
       </c>
     </row>
     <row r="788" spans="1:14" x14ac:dyDescent="0.25">
@@ -41420,16 +41420,16 @@
         <v>70</v>
       </c>
       <c r="K789" s="72">
-        <v>47.34</v>
+        <v>47.339999999999996</v>
       </c>
       <c r="L789" s="72">
-        <v>46.438000000000002</v>
+        <v>46.437999999999995</v>
       </c>
       <c r="M789" s="72">
         <v>107.40700000000001</v>
       </c>
       <c r="N789" s="72">
-        <v>93.778000000000006</v>
+        <v>93.777999999999992</v>
       </c>
     </row>
     <row r="790" spans="1:14" x14ac:dyDescent="0.25">
@@ -41467,13 +41467,13 @@
         <v>25.317</v>
       </c>
       <c r="L790" s="72">
-        <v>44.617000000000012</v>
+        <v>44.616999999999997</v>
       </c>
       <c r="M790" s="72">
         <v>49.161000000000001</v>
       </c>
       <c r="N790" s="72">
-        <v>69.934000000000012</v>
+        <v>69.933999999999997</v>
       </c>
     </row>
     <row r="791" spans="1:14" x14ac:dyDescent="0.25">
@@ -41514,7 +41514,7 @@
         <v>21.989000000000001</v>
       </c>
       <c r="M791" s="72">
-        <v>47.945</v>
+        <v>47.945000000000007</v>
       </c>
       <c r="N791" s="72">
         <v>32.823</v>
@@ -42856,16 +42856,16 @@
         <v>70</v>
       </c>
       <c r="K823" s="72">
-        <v>49.725000000000001</v>
+        <v>49.724999999999994</v>
       </c>
       <c r="L823" s="72">
-        <v>68.882000000000005</v>
+        <v>68.882000000000019</v>
       </c>
       <c r="M823" s="72">
         <v>14.457000000000001</v>
       </c>
       <c r="N823" s="72">
-        <v>118.607</v>
+        <v>118.60700000000001</v>
       </c>
     </row>
     <row r="824" spans="1:14" x14ac:dyDescent="0.25">
@@ -42900,16 +42900,16 @@
         <v>70</v>
       </c>
       <c r="K824" s="72">
-        <v>43.196999999999996</v>
+        <v>43.197000000000003</v>
       </c>
       <c r="L824" s="72">
-        <v>80.327000000000027</v>
+        <v>80.326999999999998</v>
       </c>
       <c r="M824" s="72">
-        <v>38.279999999999994</v>
+        <v>38.28</v>
       </c>
       <c r="N824" s="72">
-        <v>123.52400000000003</v>
+        <v>123.524</v>
       </c>
     </row>
     <row r="825" spans="1:14" x14ac:dyDescent="0.25">
@@ -42944,16 +42944,16 @@
         <v>70</v>
       </c>
       <c r="K825" s="72">
-        <v>93.778000000000006</v>
+        <v>93.777999999999992</v>
       </c>
       <c r="L825" s="72">
         <v>33.932999999999993</v>
       </c>
       <c r="M825" s="72">
-        <v>89.591000000000008</v>
+        <v>89.590999999999994</v>
       </c>
       <c r="N825" s="72">
-        <v>127.711</v>
+        <v>127.71099999999998</v>
       </c>
     </row>
     <row r="826" spans="1:14" x14ac:dyDescent="0.25">
@@ -42991,13 +42991,13 @@
         <v>38.048000000000002</v>
       </c>
       <c r="L826" s="72">
-        <v>80.751999999999995</v>
+        <v>80.75200000000001</v>
       </c>
       <c r="M826" s="72">
-        <v>46.958999999999996</v>
+        <v>46.959000000000003</v>
       </c>
       <c r="N826" s="72">
-        <v>118.8</v>
+        <v>118.80000000000001</v>
       </c>
     </row>
     <row r="827" spans="1:14" x14ac:dyDescent="0.25">
@@ -43035,7 +43035,7 @@
         <v>0</v>
       </c>
       <c r="M827" s="72">
-        <v>118.8</v>
+        <v>118.80000000000001</v>
       </c>
       <c r="N827" s="72">
         <v>0</v>
@@ -44626,7 +44626,7 @@
         <v>135.59699999999998</v>
       </c>
       <c r="M865" s="72">
-        <v>35.286999999999992</v>
+        <v>35.286999999999999</v>
       </c>
       <c r="N865" s="72">
         <v>190.452</v>
@@ -44664,10 +44664,10 @@
         <v>70</v>
       </c>
       <c r="K866" s="72">
-        <v>47.606000000000002</v>
+        <v>47.606000000000009</v>
       </c>
       <c r="L866" s="72">
-        <v>41.700999999999986</v>
+        <v>41.700999999999979</v>
       </c>
       <c r="M866" s="72">
         <v>148.75100000000003</v>
@@ -46182,7 +46182,7 @@
         <v>26.438999999999997</v>
       </c>
       <c r="M902" s="72">
-        <v>71.298999999999992</v>
+        <v>71.299000000000007</v>
       </c>
       <c r="N902" s="72">
         <v>40.945999999999998</v>
@@ -46220,10 +46220,10 @@
         <v>70</v>
       </c>
       <c r="K903" s="72">
-        <v>18.952999999999996</v>
+        <v>18.952999999999999</v>
       </c>
       <c r="L903" s="72">
-        <v>25.993000000000002</v>
+        <v>25.992999999999999</v>
       </c>
       <c r="M903" s="72">
         <v>14.952999999999999</v>
@@ -47530,7 +47530,7 @@
         <v>47.222999999999999</v>
       </c>
       <c r="M934" s="72">
-        <v>26.052999999999997</v>
+        <v>26.053000000000001</v>
       </c>
       <c r="N934" s="72">
         <v>56.777000000000001</v>
@@ -47600,7 +47600,7 @@
         <v>70</v>
       </c>
       <c r="K936" s="72">
-        <v>43.905999999999999</v>
+        <v>43.905999999999992</v>
       </c>
       <c r="L936" s="72">
         <v>0</v>
@@ -47609,7 +47609,7 @@
         <v>0</v>
       </c>
       <c r="N936" s="72">
-        <v>43.905999999999999</v>
+        <v>43.905999999999992</v>
       </c>
     </row>
     <row r="937" spans="1:14" x14ac:dyDescent="0.25">
@@ -47650,7 +47650,7 @@
         <v>21.917000000000002</v>
       </c>
       <c r="M937" s="72">
-        <v>21.989000000000001</v>
+        <v>21.988999999999997</v>
       </c>
       <c r="N937" s="72">
         <v>68.155000000000001</v>
@@ -47688,16 +47688,16 @@
         <v>70</v>
       </c>
       <c r="K938" s="72">
-        <v>54.174000000000007</v>
+        <v>54.173999999999999</v>
       </c>
       <c r="L938" s="72">
-        <v>47.909000000000006</v>
+        <v>47.908999999999999</v>
       </c>
       <c r="M938" s="72">
         <v>20.246000000000002</v>
       </c>
       <c r="N938" s="72">
-        <v>102.08300000000001</v>
+        <v>102.083</v>
       </c>
     </row>
     <row r="939" spans="1:14" x14ac:dyDescent="0.25">
@@ -47735,13 +47735,13 @@
         <v>19.91</v>
       </c>
       <c r="L939" s="72">
-        <v>30.099999999999998</v>
+        <v>30.100000000000005</v>
       </c>
       <c r="M939" s="72">
         <v>71.983000000000004</v>
       </c>
       <c r="N939" s="72">
-        <v>50.01</v>
+        <v>50.010000000000005</v>
       </c>
     </row>
     <row r="940" spans="1:14" x14ac:dyDescent="0.25">
@@ -49156,16 +49156,16 @@
         <v>70</v>
       </c>
       <c r="K973" s="72">
-        <v>75.705000000000013</v>
+        <v>75.704999999999998</v>
       </c>
       <c r="L973" s="72">
-        <v>146.59599999999998</v>
+        <v>146.59600000000006</v>
       </c>
       <c r="M973" s="72">
-        <v>96.806000000000012</v>
+        <v>96.805999999999997</v>
       </c>
       <c r="N973" s="72">
-        <v>222.30099999999999</v>
+        <v>222.30100000000004</v>
       </c>
     </row>
     <row r="974" spans="1:14" x14ac:dyDescent="0.25">
@@ -49203,13 +49203,13 @@
         <v>28.137999999999998</v>
       </c>
       <c r="L974" s="72">
-        <v>167.42699999999999</v>
+        <v>167.42700000000002</v>
       </c>
       <c r="M974" s="72">
-        <v>54.874000000000009</v>
+        <v>54.874000000000002</v>
       </c>
       <c r="N974" s="72">
-        <v>195.565</v>
+        <v>195.56500000000003</v>
       </c>
     </row>
     <row r="975" spans="1:14" x14ac:dyDescent="0.25">
@@ -49250,7 +49250,7 @@
         <v>142.85200000000003</v>
       </c>
       <c r="M975" s="72">
-        <v>52.713000000000001</v>
+        <v>52.712999999999994</v>
       </c>
       <c r="N975" s="72">
         <v>148.36100000000002</v>
@@ -49294,7 +49294,7 @@
         <v>126.89600000000002</v>
       </c>
       <c r="M976" s="72">
-        <v>21.465</v>
+        <v>21.465000000000003</v>
       </c>
       <c r="N976" s="72">
         <v>138.42000000000002</v>
@@ -50671,13 +50671,13 @@
         <v>17.728000000000002</v>
       </c>
       <c r="L1009" s="72">
-        <v>19.290999999999997</v>
+        <v>19.291000000000004</v>
       </c>
       <c r="M1009" s="72">
         <v>2.871</v>
       </c>
       <c r="N1009" s="72">
-        <v>37.018999999999998</v>
+        <v>37.019000000000005</v>
       </c>
     </row>
     <row r="1010" spans="1:14" x14ac:dyDescent="0.25">
@@ -50712,10 +50712,10 @@
         <v>70</v>
       </c>
       <c r="K1010" s="72">
-        <v>59.942999999999998</v>
+        <v>59.943000000000005</v>
       </c>
       <c r="L1010" s="72">
-        <v>34.569000000000003</v>
+        <v>34.568999999999996</v>
       </c>
       <c r="M1010" s="72">
         <v>2.4500000000000002</v>
@@ -50759,13 +50759,13 @@
         <v>46.258000000000003</v>
       </c>
       <c r="L1011" s="72">
-        <v>80.794999999999987</v>
+        <v>80.795000000000016</v>
       </c>
       <c r="M1011" s="72">
         <v>13.717000000000001</v>
       </c>
       <c r="N1011" s="72">
-        <v>127.053</v>
+        <v>127.05300000000001</v>
       </c>
     </row>
     <row r="1012" spans="1:14" x14ac:dyDescent="0.25">
@@ -50800,16 +50800,16 @@
         <v>70</v>
       </c>
       <c r="K1012" s="72">
-        <v>21.326000000000004</v>
+        <v>21.326000000000001</v>
       </c>
       <c r="L1012" s="72">
-        <v>69.390999999999991</v>
+        <v>69.39100000000002</v>
       </c>
       <c r="M1012" s="72">
         <v>57.661999999999999</v>
       </c>
       <c r="N1012" s="72">
-        <v>90.716999999999999</v>
+        <v>90.717000000000013</v>
       </c>
     </row>
     <row r="1013" spans="1:14" x14ac:dyDescent="0.25">
@@ -50847,7 +50847,7 @@
         <v>0</v>
       </c>
       <c r="M1013" s="72">
-        <v>90.716999999999999</v>
+        <v>90.717000000000013</v>
       </c>
       <c r="N1013" s="72">
         <v>0</v>
@@ -52142,7 +52142,7 @@
         <v>88.734000000000009</v>
       </c>
       <c r="M1044" s="72">
-        <v>25.397000000000002</v>
+        <v>25.396999999999998</v>
       </c>
       <c r="N1044" s="72">
         <v>114.04900000000001</v>
@@ -52186,7 +52186,7 @@
         <v>93.652000000000015</v>
       </c>
       <c r="M1045" s="72">
-        <v>20.397000000000002</v>
+        <v>20.396999999999998</v>
       </c>
       <c r="N1045" s="72">
         <v>119.11500000000001</v>
@@ -52230,7 +52230,7 @@
         <v>95.858000000000004</v>
       </c>
       <c r="M1046" s="72">
-        <v>23.256999999999998</v>
+        <v>23.257000000000001</v>
       </c>
       <c r="N1046" s="72">
         <v>151.30799999999999</v>
@@ -53340,7 +53340,7 @@
         <v>70</v>
       </c>
       <c r="K1073" s="72">
-        <v>6.8639999999999999</v>
+        <v>6.8640000000000008</v>
       </c>
       <c r="L1073" s="72">
         <v>0</v>
@@ -53349,7 +53349,7 @@
         <v>0</v>
       </c>
       <c r="N1073" s="72">
-        <v>6.8639999999999999</v>
+        <v>6.8640000000000008</v>
       </c>
     </row>
     <row r="1074" spans="1:14" x14ac:dyDescent="0.25">
@@ -53384,10 +53384,10 @@
         <v>70</v>
       </c>
       <c r="K1074" s="72">
-        <v>26.933999999999997</v>
+        <v>26.934000000000001</v>
       </c>
       <c r="L1074" s="72">
-        <v>2.2920000000000016</v>
+        <v>2.291999999999998</v>
       </c>
       <c r="M1074" s="72">
         <v>4.5720000000000001</v>
@@ -53428,16 +53428,16 @@
         <v>70</v>
       </c>
       <c r="K1075" s="72">
-        <v>31.437999999999999</v>
+        <v>31.438000000000002</v>
       </c>
       <c r="L1075" s="72">
-        <v>27.950000000000006</v>
+        <v>27.949999999999996</v>
       </c>
       <c r="M1075" s="72">
         <v>1.276</v>
       </c>
       <c r="N1075" s="72">
-        <v>59.388000000000005</v>
+        <v>59.387999999999998</v>
       </c>
     </row>
     <row r="1076" spans="1:14" x14ac:dyDescent="0.25">
@@ -53472,16 +53472,16 @@
         <v>70</v>
       </c>
       <c r="K1076" s="72">
-        <v>38.593999999999994</v>
+        <v>38.594000000000001</v>
       </c>
       <c r="L1076" s="72">
-        <v>44.004000000000005</v>
+        <v>44.003999999999984</v>
       </c>
       <c r="M1076" s="72">
         <v>15.384</v>
       </c>
       <c r="N1076" s="72">
-        <v>82.597999999999999</v>
+        <v>82.597999999999985</v>
       </c>
     </row>
     <row r="1077" spans="1:14" x14ac:dyDescent="0.25">
@@ -53519,7 +53519,7 @@
         <v>0</v>
       </c>
       <c r="M1077" s="72">
-        <v>82.597999999999999</v>
+        <v>82.597999999999985</v>
       </c>
       <c r="N1077" s="72">
         <v>0</v>
@@ -54635,13 +54635,13 @@
         <v>26.526000000000003</v>
       </c>
       <c r="L1104" s="72">
-        <v>104.62099999999998</v>
+        <v>104.62100000000001</v>
       </c>
       <c r="M1104" s="72">
         <v>3.1779999999999999</v>
       </c>
       <c r="N1104" s="72">
-        <v>131.14699999999999</v>
+        <v>131.14700000000002</v>
       </c>
     </row>
     <row r="1105" spans="1:14" x14ac:dyDescent="0.25">
@@ -54676,10 +54676,10 @@
         <v>70</v>
       </c>
       <c r="K1105" s="72">
-        <v>30.521999999999998</v>
+        <v>30.522000000000002</v>
       </c>
       <c r="L1105" s="72">
-        <v>104.125</v>
+        <v>104.12499999999999</v>
       </c>
       <c r="M1105" s="72">
         <v>27.021999999999998</v>
@@ -54720,16 +54720,16 @@
         <v>70</v>
       </c>
       <c r="K1106" s="72">
-        <v>6.2040000000000006</v>
+        <v>6.2039999999999997</v>
       </c>
       <c r="L1106" s="72">
-        <v>47.413000000000004</v>
+        <v>47.412999999999997</v>
       </c>
       <c r="M1106" s="72">
         <v>87.234000000000009</v>
       </c>
       <c r="N1106" s="72">
-        <v>53.617000000000004</v>
+        <v>53.616999999999997</v>
       </c>
     </row>
     <row r="1107" spans="1:14" x14ac:dyDescent="0.25">
@@ -54767,7 +54767,7 @@
         <v>0</v>
       </c>
       <c r="M1107" s="72">
-        <v>53.617000000000004</v>
+        <v>53.616999999999997</v>
       </c>
       <c r="N1107" s="72">
         <v>0</v>
@@ -55716,10 +55716,10 @@
         <v>70</v>
       </c>
       <c r="K1130" s="72">
-        <v>21.055</v>
+        <v>21.055000000000003</v>
       </c>
       <c r="L1130" s="72">
-        <v>56.872999999999998</v>
+        <v>56.87299999999999</v>
       </c>
       <c r="M1130" s="72">
         <v>18.407</v>
@@ -59627,13 +59627,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="72">
-        <v>111.85849999999996</v>
+        <v>111.85850000000005</v>
       </c>
       <c r="H6" s="72">
         <v>70</v>
       </c>
       <c r="I6" s="76">
-        <v>1.5979785714285708</v>
+        <v>1.5979785714285721</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -59656,13 +59656,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="72">
-        <v>39.079499999999996</v>
+        <v>39.079499999999989</v>
       </c>
       <c r="H7" s="72">
         <v>70</v>
       </c>
       <c r="I7" s="76">
-        <v>0.5582785714285714</v>
+        <v>0.55827857142857129</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -59685,13 +59685,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="72">
-        <v>189.03250000000008</v>
+        <v>189.03250000000003</v>
       </c>
       <c r="H8" s="72">
         <v>210</v>
       </c>
       <c r="I8" s="76">
-        <v>0.90015476190476229</v>
+        <v>0.90015476190476207</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -59714,13 +59714,13 @@
         <v>0</v>
       </c>
       <c r="G9" s="72">
-        <v>50.602499999999999</v>
+        <v>50.602500000000006</v>
       </c>
       <c r="H9" s="72">
         <v>210</v>
       </c>
       <c r="I9" s="76">
-        <v>0.24096428571428571</v>
+        <v>0.24096428571428574</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -59743,13 +59743,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="72">
-        <v>99.366250000000036</v>
+        <v>99.366250000000022</v>
       </c>
       <c r="H10" s="72">
         <v>70</v>
       </c>
       <c r="I10" s="76">
-        <v>1.4195178571428577</v>
+        <v>1.4195178571428575</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -59801,13 +59801,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="72">
-        <v>30.651249999999994</v>
+        <v>30.651249999999997</v>
       </c>
       <c r="H12" s="72">
         <v>70</v>
       </c>
       <c r="I12" s="76">
-        <v>0.4378749999999999</v>
+        <v>0.43787499999999996</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -59830,13 +59830,13 @@
         <v>0</v>
       </c>
       <c r="G13" s="72">
-        <v>18.631000000000007</v>
+        <v>18.631</v>
       </c>
       <c r="H13" s="72">
         <v>70</v>
       </c>
       <c r="I13" s="76">
-        <v>0.26615714285714298</v>
+        <v>0.26615714285714287</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -59917,13 +59917,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="72">
-        <v>163.5745</v>
+        <v>163.57449999999992</v>
       </c>
       <c r="H16" s="72">
         <v>70</v>
       </c>
       <c r="I16" s="76">
-        <v>2.3367785714285714</v>
+        <v>2.33677857142857</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -59946,13 +59946,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="72">
-        <v>52.142749999999992</v>
+        <v>52.142749999999985</v>
       </c>
       <c r="H17" s="72">
         <v>70</v>
       </c>
       <c r="I17" s="76">
-        <v>0.74489642857142846</v>
+        <v>0.74489642857142835</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -59975,7 +59975,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="72">
-        <v>36.354750000000003</v>
+        <v>36.354749999999996</v>
       </c>
       <c r="H18" s="72">
         <v>70</v>
@@ -60004,13 +60004,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="72">
-        <v>49.060750000000006</v>
+        <v>49.060749999999985</v>
       </c>
       <c r="H19" s="72">
         <v>70</v>
       </c>
       <c r="I19" s="76">
-        <v>0.70086785714285726</v>
+        <v>0.70086785714285693</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -60033,13 +60033,13 @@
         <v>0</v>
       </c>
       <c r="G20" s="72">
-        <v>27.189500000000002</v>
+        <v>27.189499999999995</v>
       </c>
       <c r="H20" s="72">
         <v>70</v>
       </c>
       <c r="I20" s="76">
-        <v>0.38842142857142858</v>
+        <v>0.38842142857142853</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -60062,7 +60062,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="72">
-        <v>23.406500000000005</v>
+        <v>23.406500000000001</v>
       </c>
       <c r="H21" s="72">
         <v>70</v>
@@ -60120,13 +60120,13 @@
         <v>0</v>
       </c>
       <c r="G23" s="72">
-        <v>36.369</v>
+        <v>36.368999999999993</v>
       </c>
       <c r="H23" s="72">
         <v>140</v>
       </c>
       <c r="I23" s="76">
-        <v>0.25977857142857141</v>
+        <v>0.25977857142857136</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -60149,13 +60149,13 @@
         <v>0</v>
       </c>
       <c r="G24" s="72">
-        <v>83.860500000000002</v>
+        <v>83.860499999999988</v>
       </c>
       <c r="H24" s="72">
         <v>140</v>
       </c>
       <c r="I24" s="76">
-        <v>0.59900357142857141</v>
+        <v>0.5990035714285713</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -60178,13 +60178,13 @@
         <v>0</v>
       </c>
       <c r="G25" s="72">
-        <v>56.841500000000025</v>
+        <v>56.841499999999996</v>
       </c>
       <c r="H25" s="72">
         <v>140</v>
       </c>
       <c r="I25" s="76">
-        <v>0.40601071428571445</v>
+        <v>0.40601071428571428</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -60207,13 +60207,13 @@
         <v>0</v>
       </c>
       <c r="G26" s="72">
-        <v>180.26924999999991</v>
+        <v>180.26925000000008</v>
       </c>
       <c r="H26" s="72">
         <v>210</v>
       </c>
       <c r="I26" s="76">
-        <v>0.85842499999999955</v>
+        <v>0.85842500000000044</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -60236,13 +60236,13 @@
         <v>0</v>
       </c>
       <c r="G27" s="72">
-        <v>51.576000000000001</v>
+        <v>51.576000000000015</v>
       </c>
       <c r="H27" s="72">
         <v>210</v>
       </c>
       <c r="I27" s="76">
-        <v>0.24560000000000001</v>
+        <v>0.24560000000000007</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -60265,13 +60265,13 @@
         <v>0</v>
       </c>
       <c r="G28" s="72">
-        <v>146.81225000000001</v>
+        <v>146.81224999999998</v>
       </c>
       <c r="H28" s="72">
         <v>210</v>
       </c>
       <c r="I28" s="76">
-        <v>0.69910595238095241</v>
+        <v>0.6991059523809523</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -60323,13 +60323,13 @@
         <v>0</v>
       </c>
       <c r="G30" s="72">
-        <v>90.604499999999987</v>
+        <v>90.604499999999973</v>
       </c>
       <c r="H30" s="72">
         <v>210</v>
       </c>
       <c r="I30" s="76">
-        <v>0.43144999999999994</v>
+        <v>0.43144999999999989</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -60352,13 +60352,13 @@
         <v>0</v>
       </c>
       <c r="G31" s="72">
-        <v>63.940250000000027</v>
+        <v>63.94025000000002</v>
       </c>
       <c r="H31" s="72">
         <v>210</v>
       </c>
       <c r="I31" s="76">
-        <v>0.30447738095238108</v>
+        <v>0.30447738095238103</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -60381,13 +60381,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="72">
-        <v>95.477750000000015</v>
+        <v>95.477750000000043</v>
       </c>
       <c r="H32" s="72">
         <v>280</v>
       </c>
       <c r="I32" s="76">
-        <v>0.34099196428571432</v>
+        <v>0.34099196428571443</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -60410,13 +60410,13 @@
         <v>0</v>
       </c>
       <c r="G33" s="72">
-        <v>105.28799999999998</v>
+        <v>105.28799999999997</v>
       </c>
       <c r="H33" s="72">
         <v>280</v>
       </c>
       <c r="I33" s="76">
-        <v>0.37602857142857138</v>
+        <v>0.37602857142857132</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -60439,13 +60439,13 @@
         <v>0</v>
       </c>
       <c r="G34" s="72">
-        <v>398.36324999999977</v>
+        <v>398.36324999999971</v>
       </c>
       <c r="H34" s="72">
         <v>280</v>
       </c>
       <c r="I34" s="76">
-        <v>1.422725892857142</v>
+        <v>1.4227258928571418</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -60468,13 +60468,13 @@
         <v>0</v>
       </c>
       <c r="G35" s="72">
-        <v>177.98600000000008</v>
+        <v>177.98599999999996</v>
       </c>
       <c r="H35" s="72">
         <v>280</v>
       </c>
       <c r="I35" s="76">
-        <v>0.63566428571428601</v>
+        <v>0.63566428571428557</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -60497,13 +60497,13 @@
         <v>0</v>
       </c>
       <c r="G36" s="72">
-        <v>50.268499999999996</v>
+        <v>50.268500000000003</v>
       </c>
       <c r="H36" s="72">
         <v>140</v>
       </c>
       <c r="I36" s="76">
-        <v>0.35906071428571423</v>
+        <v>0.35906071428571429</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -60526,13 +60526,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="72">
-        <v>62.477749999999979</v>
+        <v>62.477750000000064</v>
       </c>
       <c r="H37" s="72">
         <v>140</v>
       </c>
       <c r="I37" s="76">
-        <v>0.44626964285714271</v>
+        <v>0.44626964285714332</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -60555,13 +60555,13 @@
         <v>0</v>
       </c>
       <c r="G38" s="72">
-        <v>93.031750000000045</v>
+        <v>93.031750000000017</v>
       </c>
       <c r="H38" s="72">
         <v>140</v>
       </c>
       <c r="I38" s="76">
-        <v>0.66451250000000028</v>
+        <v>0.66451250000000017</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -60584,13 +60584,13 @@
         <v>0</v>
       </c>
       <c r="G39" s="72">
-        <v>48.132249999999999</v>
+        <v>48.132249999999992</v>
       </c>
       <c r="H39" s="72">
         <v>140</v>
       </c>
       <c r="I39" s="76">
-        <v>0.34380178571428571</v>
+        <v>0.34380178571428566</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -60700,13 +60700,13 @@
         <v>0</v>
       </c>
       <c r="G43" s="72">
-        <v>50.008250000000018</v>
+        <v>50.008250000000004</v>
       </c>
       <c r="H43" s="72">
         <v>280</v>
       </c>
       <c r="I43" s="76">
-        <v>0.17860089285714292</v>
+        <v>0.17860089285714287</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -60729,13 +60729,13 @@
         <v>0</v>
       </c>
       <c r="G44" s="72">
-        <v>74.606000000000009</v>
+        <v>74.606000000000037</v>
       </c>
       <c r="H44" s="72">
         <v>70</v>
       </c>
       <c r="I44" s="76">
-        <v>1.0658000000000001</v>
+        <v>1.0658000000000005</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -60758,13 +60758,13 @@
         <v>0</v>
       </c>
       <c r="G45" s="72">
-        <v>32.1265</v>
+        <v>32.126500000000007</v>
       </c>
       <c r="H45" s="72">
         <v>70</v>
       </c>
       <c r="I45" s="76">
-        <v>0.45895000000000002</v>
+        <v>0.45895000000000008</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -60787,13 +60787,13 @@
         <v>0</v>
       </c>
       <c r="G46" s="72">
-        <v>347.02499999999998</v>
+        <v>347.02499999999969</v>
       </c>
       <c r="H46" s="72">
         <v>350</v>
       </c>
       <c r="I46" s="76">
-        <v>0.99149999999999994</v>
+        <v>0.99149999999999916</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -60845,7 +60845,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="72">
-        <v>61.227000000000004</v>
+        <v>61.226999999999997</v>
       </c>
       <c r="H48" s="72">
         <v>210</v>
@@ -60874,13 +60874,13 @@
         <v>0</v>
       </c>
       <c r="G49" s="72">
-        <v>153.58500000000004</v>
+        <v>153.58499999999998</v>
       </c>
       <c r="H49" s="72">
         <v>210</v>
       </c>
       <c r="I49" s="76">
-        <v>0.73135714285714304</v>
+        <v>0.73135714285714271</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -60932,13 +60932,13 @@
         <v>0</v>
       </c>
       <c r="G51" s="72">
-        <v>220.72675000000001</v>
+        <v>220.72674999999998</v>
       </c>
       <c r="H51" s="72">
         <v>210</v>
       </c>
       <c r="I51" s="76">
-        <v>1.051079761904762</v>
+        <v>1.0510797619047618</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -61048,13 +61048,13 @@
         <v>0</v>
       </c>
       <c r="G55" s="72">
-        <v>63.393749999999997</v>
+        <v>63.393750000000026</v>
       </c>
       <c r="H55" s="72">
         <v>70</v>
       </c>
       <c r="I55" s="76">
-        <v>0.90562500000000001</v>
+        <v>0.90562500000000035</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -61077,13 +61077,13 @@
         <v>0</v>
       </c>
       <c r="G56" s="72">
-        <v>104.12775000000005</v>
+        <v>104.12774999999999</v>
       </c>
       <c r="H56" s="72">
         <v>140</v>
       </c>
       <c r="I56" s="76">
-        <v>0.7437696428571432</v>
+        <v>0.74376964285714275</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -61106,13 +61106,13 @@
         <v>0</v>
       </c>
       <c r="G57" s="72">
-        <v>77.801000000000016</v>
+        <v>77.80100000000003</v>
       </c>
       <c r="H57" s="72">
         <v>140</v>
       </c>
       <c r="I57" s="76">
-        <v>0.5557214285714287</v>
+        <v>0.55572142857142881</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -61251,13 +61251,13 @@
         <v>0</v>
       </c>
       <c r="G62" s="72">
-        <v>40.09975</v>
+        <v>40.099749999999993</v>
       </c>
       <c r="H62" s="72">
         <v>70</v>
       </c>
       <c r="I62" s="76">
-        <v>0.57285357142857141</v>
+        <v>0.5728535714285713</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -61280,13 +61280,13 @@
         <v>0</v>
       </c>
       <c r="G63" s="72">
-        <v>35.110999999999997</v>
+        <v>35.111000000000004</v>
       </c>
       <c r="H63" s="72">
         <v>70</v>
       </c>
       <c r="I63" s="76">
-        <v>0.50158571428571419</v>
+        <v>0.5015857142857143</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -61309,13 +61309,13 @@
         <v>0</v>
       </c>
       <c r="G64" s="72">
-        <v>116.97650000000002</v>
+        <v>116.97649999999999</v>
       </c>
       <c r="H64" s="72">
         <v>210</v>
       </c>
       <c r="I64" s="76">
-        <v>0.55703095238095246</v>
+        <v>0.55703095238095235</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -61338,13 +61338,13 @@
         <v>0</v>
       </c>
       <c r="G65" s="72">
-        <v>90.966500000000025</v>
+        <v>90.966499999999982</v>
       </c>
       <c r="H65" s="72">
         <v>210</v>
       </c>
       <c r="I65" s="76">
-        <v>0.43317380952380963</v>
+        <v>0.43317380952380946</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -61367,13 +61367,13 @@
         <v>0</v>
       </c>
       <c r="G66" s="72">
-        <v>20.2105</v>
+        <v>20.210500000000003</v>
       </c>
       <c r="H66" s="72">
         <v>70</v>
       </c>
       <c r="I66" s="76">
-        <v>0.28872142857142857</v>
+        <v>0.28872142857142863</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -61396,13 +61396,13 @@
         <v>0</v>
       </c>
       <c r="G67" s="72">
-        <v>37.14524999999999</v>
+        <v>37.145250000000004</v>
       </c>
       <c r="H67" s="72">
         <v>70</v>
       </c>
       <c r="I67" s="76">
-        <v>0.53064642857142841</v>
+        <v>0.53064642857142863</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -61425,13 +61425,13 @@
         <v>0</v>
       </c>
       <c r="G68" s="72">
-        <v>195.37699999999998</v>
+        <v>195.37700000000004</v>
       </c>
       <c r="H68" s="72">
         <v>280</v>
       </c>
       <c r="I68" s="76">
-        <v>0.69777499999999992</v>
+        <v>0.69777500000000015</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -61454,13 +61454,13 @@
         <v>0</v>
       </c>
       <c r="G69" s="72">
-        <v>168.4845</v>
+        <v>168.48449999999991</v>
       </c>
       <c r="H69" s="72">
         <v>280</v>
       </c>
       <c r="I69" s="76">
-        <v>0.60173035714285716</v>
+        <v>0.60173035714285683</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -61512,13 +61512,13 @@
         <v>0</v>
       </c>
       <c r="G71" s="72">
-        <v>73.824750000000023</v>
+        <v>73.824749999999995</v>
       </c>
       <c r="H71" s="72">
         <v>70</v>
       </c>
       <c r="I71" s="76">
-        <v>1.0546392857142861</v>
+        <v>1.0546392857142857</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -61599,13 +61599,13 @@
         <v>0</v>
       </c>
       <c r="G74" s="72">
-        <v>180.66024999999999</v>
+        <v>180.66024999999993</v>
       </c>
       <c r="H74" s="72">
         <v>280</v>
       </c>
       <c r="I74" s="76">
-        <v>0.64521517857142852</v>
+        <v>0.64521517857142829</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -61715,13 +61715,13 @@
         <v>0</v>
       </c>
       <c r="G78" s="72">
-        <v>54.029500000000027</v>
+        <v>54.029499999999992</v>
       </c>
       <c r="H78" s="72">
         <v>70</v>
       </c>
       <c r="I78" s="76">
-        <v>0.77185000000000037</v>
+        <v>0.77184999999999993</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -61744,13 +61744,13 @@
         <v>0</v>
       </c>
       <c r="G79" s="72">
-        <v>30.452999999999992</v>
+        <v>30.453000000000007</v>
       </c>
       <c r="H79" s="72">
         <v>70</v>
       </c>
       <c r="I79" s="76">
-        <v>0.43504285714285701</v>
+        <v>0.43504285714285723</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -61773,13 +61773,13 @@
         <v>0</v>
       </c>
       <c r="G80" s="72">
-        <v>77.924750000000017</v>
+        <v>77.924750000000003</v>
       </c>
       <c r="H80" s="72">
         <v>140</v>
       </c>
       <c r="I80" s="76">
-        <v>0.5566053571428573</v>
+        <v>0.55660535714285719</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -61802,13 +61802,13 @@
         <v>0</v>
       </c>
       <c r="G81" s="72">
-        <v>51.402749999999983</v>
+        <v>51.402750000000019</v>
       </c>
       <c r="H81" s="72">
         <v>140</v>
       </c>
       <c r="I81" s="76">
-        <v>0.36716249999999989</v>
+        <v>0.36716250000000011</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -61831,13 +61831,13 @@
         <v>0</v>
       </c>
       <c r="G82" s="72">
-        <v>46.315749999999994</v>
+        <v>46.315750000000008</v>
       </c>
       <c r="H82" s="72">
         <v>70</v>
       </c>
       <c r="I82" s="76">
-        <v>0.6616535714285714</v>
+        <v>0.66165357142857151</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -61860,13 +61860,13 @@
         <v>0</v>
       </c>
       <c r="G83" s="72">
-        <v>32.348749999999995</v>
+        <v>32.348750000000003</v>
       </c>
       <c r="H83" s="72">
         <v>70</v>
       </c>
       <c r="I83" s="76">
-        <v>0.46212499999999995</v>
+        <v>0.46212500000000006</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -61918,13 +61918,13 @@
         <v>0</v>
       </c>
       <c r="G85" s="72">
-        <v>40.552000000000007</v>
+        <v>40.552</v>
       </c>
       <c r="H85" s="72">
         <v>210</v>
       </c>
       <c r="I85" s="76">
-        <v>0.19310476190476195</v>
+        <v>0.19310476190476189</v>
       </c>
     </row>
   </sheetData>

--- a/Grid_5x5/Solutions/Solution_NDP_S063/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
+++ b/Grid_5x5/Solutions/Solution_NDP_S063/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
@@ -2662,7 +2662,7 @@
         <v>166</v>
       </c>
       <c r="C39" s="38">
-        <v>19.238638904046908</v>
+        <v>19.238638904046912</v>
       </c>
       <c r="D39" s="22" t="s">
         <v>129</v>
@@ -2682,7 +2682,7 @@
         <v>200</v>
       </c>
       <c r="C40" s="39">
-        <v>20.569645469730617</v>
+        <v>20.56964546973062</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>129</v>
@@ -2702,7 +2702,7 @@
         <v>201</v>
       </c>
       <c r="C41" s="39">
-        <v>0.36588957835138786</v>
+        <v>0.36588957835138791</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>42</v>
@@ -2723,7 +2723,7 @@
         <v>202</v>
       </c>
       <c r="C42" s="39">
-        <v>2.33677857142857</v>
+        <v>2.3367785714285718</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>42</v>
@@ -2743,7 +2743,7 @@
         <v>204</v>
       </c>
       <c r="C43" s="40">
-        <v>2.8179285714285718</v>
+        <v>2.8179285714285713</v>
       </c>
       <c r="D43" s="67" t="s">
         <v>42</v>
@@ -8585,7 +8585,7 @@
         <v>54.768000000000001</v>
       </c>
       <c r="N9" s="72">
-        <v>100.41699999999999</v>
+        <v>100.417</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -8743,13 +8743,13 @@
         <v>36.858000000000004</v>
       </c>
       <c r="L13" s="72">
-        <v>66.477999999999994</v>
+        <v>66.478000000000009</v>
       </c>
       <c r="M13" s="72">
         <v>45.158999999999992</v>
       </c>
       <c r="N13" s="72">
-        <v>103.336</v>
+        <v>103.33600000000001</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -8787,13 +8787,13 @@
         <v>61.366</v>
       </c>
       <c r="L14" s="72">
-        <v>38.476000000000013</v>
+        <v>38.475999999999999</v>
       </c>
       <c r="M14" s="72">
         <v>64.860000000000014</v>
       </c>
       <c r="N14" s="72">
-        <v>99.842000000000013</v>
+        <v>99.841999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -10091,13 +10091,13 @@
         <v>292.00099999999998</v>
       </c>
       <c r="L45" s="72">
-        <v>130.5390000000001</v>
+        <v>130.53899999999999</v>
       </c>
       <c r="M45" s="72">
-        <v>62.945</v>
+        <v>62.945000000000007</v>
       </c>
       <c r="N45" s="72">
-        <v>422.54000000000008</v>
+        <v>422.53999999999996</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -10252,16 +10252,16 @@
         <v>70</v>
       </c>
       <c r="K49" s="72">
-        <v>61.343999999999994</v>
+        <v>61.344000000000001</v>
       </c>
       <c r="L49" s="72">
-        <v>35.588000000000008</v>
+        <v>35.588000000000015</v>
       </c>
       <c r="M49" s="72">
         <v>0.91200000000000003</v>
       </c>
       <c r="N49" s="72">
-        <v>96.932000000000002</v>
+        <v>96.932000000000016</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -10296,10 +10296,10 @@
         <v>70</v>
       </c>
       <c r="K50" s="72">
-        <v>55.463000000000008</v>
+        <v>55.462999999999994</v>
       </c>
       <c r="L50" s="72">
-        <v>86.087000000000003</v>
+        <v>86.087000000000018</v>
       </c>
       <c r="M50" s="72">
         <v>10.845000000000001</v>
@@ -11720,7 +11720,7 @@
         <v>70</v>
       </c>
       <c r="K84" s="72">
-        <v>14.675999999999998</v>
+        <v>14.676000000000002</v>
       </c>
       <c r="L84" s="72">
         <v>0</v>
@@ -11729,7 +11729,7 @@
         <v>0</v>
       </c>
       <c r="N84" s="72">
-        <v>14.675999999999998</v>
+        <v>14.676000000000002</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -11767,13 +11767,13 @@
         <v>24.866</v>
       </c>
       <c r="L85" s="72">
-        <v>14.253999999999998</v>
+        <v>14.254000000000005</v>
       </c>
       <c r="M85" s="72">
         <v>0.42199999999999999</v>
       </c>
       <c r="N85" s="72">
-        <v>39.119999999999997</v>
+        <v>39.120000000000005</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -11808,10 +11808,10 @@
         <v>70</v>
       </c>
       <c r="K86" s="72">
-        <v>38.904000000000003</v>
+        <v>38.903999999999996</v>
       </c>
       <c r="L86" s="72">
-        <v>27.627000000000002</v>
+        <v>27.62700000000001</v>
       </c>
       <c r="M86" s="72">
         <v>11.493</v>
@@ -11852,13 +11852,13 @@
         <v>70</v>
       </c>
       <c r="K87" s="72">
-        <v>26.578000000000003</v>
+        <v>26.577999999999999</v>
       </c>
       <c r="L87" s="72">
         <v>34.025999999999996</v>
       </c>
       <c r="M87" s="72">
-        <v>32.504999999999995</v>
+        <v>32.505000000000003</v>
       </c>
       <c r="N87" s="72">
         <v>60.603999999999999</v>
@@ -13282,7 +13282,7 @@
         <v>33.080999999999989</v>
       </c>
       <c r="M121" s="72">
-        <v>28.478000000000002</v>
+        <v>28.478000000000005</v>
       </c>
       <c r="N121" s="72">
         <v>56.965999999999994</v>
@@ -13364,10 +13364,10 @@
         <v>70</v>
       </c>
       <c r="K123" s="72">
-        <v>14.514000000000001</v>
+        <v>14.513999999999999</v>
       </c>
       <c r="L123" s="72">
-        <v>48.169999999999995</v>
+        <v>48.17</v>
       </c>
       <c r="M123" s="72">
         <v>28.905000000000001</v>
@@ -13411,13 +13411,13 @@
         <v>12.777000000000001</v>
       </c>
       <c r="L124" s="72">
-        <v>9.5129999999999946</v>
+        <v>9.5130000000000017</v>
       </c>
       <c r="M124" s="72">
-        <v>53.170999999999999</v>
+        <v>53.171000000000006</v>
       </c>
       <c r="N124" s="72">
-        <v>22.289999999999996</v>
+        <v>22.290000000000003</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
@@ -13455,7 +13455,7 @@
         <v>0</v>
       </c>
       <c r="M125" s="72">
-        <v>22.289999999999996</v>
+        <v>22.290000000000003</v>
       </c>
       <c r="N125" s="72">
         <v>0</v>
@@ -14788,7 +14788,7 @@
         <v>70</v>
       </c>
       <c r="K157" s="72">
-        <v>80.268000000000015</v>
+        <v>80.268000000000001</v>
       </c>
       <c r="L157" s="72">
         <v>41.949000000000012</v>
@@ -14797,7 +14797,7 @@
         <v>0</v>
       </c>
       <c r="N157" s="72">
-        <v>122.21700000000003</v>
+        <v>122.21700000000001</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
@@ -14832,10 +14832,10 @@
         <v>70</v>
       </c>
       <c r="K158" s="72">
-        <v>101.62699999999998</v>
+        <v>101.627</v>
       </c>
       <c r="L158" s="72">
-        <v>101.38300000000001</v>
+        <v>101.383</v>
       </c>
       <c r="M158" s="72">
         <v>20.833999999999996</v>
@@ -14876,16 +14876,16 @@
         <v>70</v>
       </c>
       <c r="K159" s="72">
-        <v>30.788</v>
+        <v>30.788000000000004</v>
       </c>
       <c r="L159" s="72">
-        <v>23.165999999999993</v>
+        <v>23.165999999999997</v>
       </c>
       <c r="M159" s="72">
         <v>179.84399999999999</v>
       </c>
       <c r="N159" s="72">
-        <v>53.953999999999994</v>
+        <v>53.954000000000001</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
@@ -14926,7 +14926,7 @@
         <v>9.6549999999999994</v>
       </c>
       <c r="M160" s="72">
-        <v>44.298999999999999</v>
+        <v>44.298999999999992</v>
       </c>
       <c r="N160" s="72">
         <v>13.917</v>
@@ -14996,7 +14996,7 @@
         <v>70</v>
       </c>
       <c r="K162" s="72">
-        <v>64.341000000000008</v>
+        <v>64.340999999999994</v>
       </c>
       <c r="L162" s="72">
         <v>0</v>
@@ -15005,7 +15005,7 @@
         <v>0</v>
       </c>
       <c r="N162" s="72">
-        <v>64.341000000000008</v>
+        <v>64.340999999999994</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
@@ -15046,7 +15046,7 @@
         <v>31.453000000000003</v>
       </c>
       <c r="M163" s="72">
-        <v>32.888000000000005</v>
+        <v>32.887999999999998</v>
       </c>
       <c r="N163" s="72">
         <v>67.173000000000002</v>
@@ -15090,7 +15090,7 @@
         <v>53.77600000000001</v>
       </c>
       <c r="M164" s="72">
-        <v>13.397</v>
+        <v>13.396999999999998</v>
       </c>
       <c r="N164" s="72">
         <v>97.305000000000007</v>
@@ -15131,13 +15131,13 @@
         <v>15.545999999999999</v>
       </c>
       <c r="L165" s="72">
-        <v>12.599</v>
+        <v>12.598999999999997</v>
       </c>
       <c r="M165" s="72">
-        <v>84.705999999999989</v>
+        <v>84.706000000000003</v>
       </c>
       <c r="N165" s="72">
-        <v>28.145</v>
+        <v>28.144999999999996</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
@@ -15175,13 +15175,13 @@
         <v>4.165</v>
       </c>
       <c r="L166" s="72">
-        <v>19.127000000000002</v>
+        <v>19.126999999999995</v>
       </c>
       <c r="M166" s="72">
-        <v>9.0179999999999989</v>
+        <v>9.0180000000000007</v>
       </c>
       <c r="N166" s="72">
-        <v>23.292000000000002</v>
+        <v>23.291999999999994</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
@@ -15219,7 +15219,7 @@
         <v>0</v>
       </c>
       <c r="M167" s="72">
-        <v>23.292000000000002</v>
+        <v>23.291999999999994</v>
       </c>
       <c r="N167" s="72">
         <v>0</v>
@@ -17443,13 +17443,13 @@
         <v>22.118000000000002</v>
       </c>
       <c r="L220" s="72">
-        <v>58.726000000000006</v>
+        <v>58.725999999999992</v>
       </c>
       <c r="M220" s="72">
         <v>52.515000000000001</v>
       </c>
       <c r="N220" s="72">
-        <v>80.844000000000008</v>
+        <v>80.843999999999994</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.25">
@@ -17487,7 +17487,7 @@
         <v>0</v>
       </c>
       <c r="M221" s="72">
-        <v>80.844000000000008</v>
+        <v>80.843999999999994</v>
       </c>
       <c r="N221" s="72">
         <v>0</v>
@@ -17563,13 +17563,13 @@
         <v>56.010000000000005</v>
       </c>
       <c r="L223" s="72">
-        <v>62.968999999999994</v>
+        <v>62.96899999999998</v>
       </c>
       <c r="M223" s="72">
         <v>9.6690000000000005</v>
       </c>
       <c r="N223" s="72">
-        <v>118.979</v>
+        <v>118.97899999999998</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
@@ -17604,10 +17604,10 @@
         <v>70</v>
       </c>
       <c r="K224" s="72">
-        <v>47.599999999999994</v>
+        <v>47.600000000000009</v>
       </c>
       <c r="L224" s="72">
-        <v>28.073000000000008</v>
+        <v>28.072999999999993</v>
       </c>
       <c r="M224" s="72">
         <v>90.906000000000006</v>
@@ -17651,13 +17651,13 @@
         <v>26.277999999999999</v>
       </c>
       <c r="L225" s="72">
-        <v>39.622000000000007</v>
+        <v>39.621999999999993</v>
       </c>
       <c r="M225" s="72">
         <v>36.051000000000002</v>
       </c>
       <c r="N225" s="72">
-        <v>65.900000000000006</v>
+        <v>65.899999999999991</v>
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.25">
@@ -17692,7 +17692,7 @@
         <v>70</v>
       </c>
       <c r="K226" s="72">
-        <v>24.404</v>
+        <v>24.403999999999996</v>
       </c>
       <c r="L226" s="72">
         <v>46.86</v>
@@ -17812,16 +17812,16 @@
         <v>70</v>
       </c>
       <c r="K229" s="72">
-        <v>23.594000000000001</v>
+        <v>23.594000000000005</v>
       </c>
       <c r="L229" s="72">
-        <v>103.738</v>
+        <v>103.73799999999999</v>
       </c>
       <c r="M229" s="72">
         <v>4.5019999999999998</v>
       </c>
       <c r="N229" s="72">
-        <v>127.33200000000001</v>
+        <v>127.33199999999999</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.25">
@@ -17856,16 +17856,16 @@
         <v>70</v>
       </c>
       <c r="K230" s="72">
-        <v>59.789000000000001</v>
+        <v>59.788999999999994</v>
       </c>
       <c r="L230" s="72">
-        <v>45.442999999999984</v>
+        <v>45.443000000000005</v>
       </c>
       <c r="M230" s="72">
         <v>81.88900000000001</v>
       </c>
       <c r="N230" s="72">
-        <v>105.23199999999999</v>
+        <v>105.232</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.25">
@@ -17903,13 +17903,13 @@
         <v>15.143000000000001</v>
       </c>
       <c r="L231" s="72">
-        <v>45.49</v>
+        <v>45.489999999999995</v>
       </c>
       <c r="M231" s="72">
-        <v>59.74199999999999</v>
+        <v>59.741999999999997</v>
       </c>
       <c r="N231" s="72">
-        <v>60.633000000000003</v>
+        <v>60.632999999999996</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.25">
@@ -20259,7 +20259,7 @@
         <v>0</v>
       </c>
       <c r="M287" s="72">
-        <v>52.355999999999995</v>
+        <v>52.356000000000002</v>
       </c>
       <c r="N287" s="72">
         <v>0</v>
@@ -20420,16 +20420,16 @@
         <v>70</v>
       </c>
       <c r="K291" s="72">
-        <v>35.203000000000003</v>
+        <v>35.202999999999996</v>
       </c>
       <c r="L291" s="72">
-        <v>58.049000000000007</v>
+        <v>58.048999999999999</v>
       </c>
       <c r="M291" s="72">
         <v>122.92400000000001</v>
       </c>
       <c r="N291" s="72">
-        <v>93.25200000000001</v>
+        <v>93.251999999999995</v>
       </c>
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.25">
@@ -20467,13 +20467,13 @@
         <v>7.3260000000000005</v>
       </c>
       <c r="L292" s="72">
-        <v>35.401999999999994</v>
+        <v>35.402000000000001</v>
       </c>
       <c r="M292" s="72">
         <v>57.849999999999994</v>
       </c>
       <c r="N292" s="72">
-        <v>42.727999999999994</v>
+        <v>42.728000000000002</v>
       </c>
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.25">
@@ -20511,7 +20511,7 @@
         <v>0</v>
       </c>
       <c r="M293" s="72">
-        <v>42.727999999999994</v>
+        <v>42.728000000000002</v>
       </c>
       <c r="N293" s="72">
         <v>0</v>
@@ -20631,13 +20631,13 @@
         <v>79.676999999999992</v>
       </c>
       <c r="L296" s="72">
-        <v>51.296000000000021</v>
+        <v>51.295999999999992</v>
       </c>
       <c r="M296" s="72">
         <v>14.992000000000001</v>
       </c>
       <c r="N296" s="72">
-        <v>130.97300000000001</v>
+        <v>130.97299999999998</v>
       </c>
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.25">
@@ -20675,13 +20675,13 @@
         <v>34.671999999999997</v>
       </c>
       <c r="L297" s="72">
-        <v>31.89</v>
+        <v>31.890000000000015</v>
       </c>
       <c r="M297" s="72">
         <v>99.082999999999998</v>
       </c>
       <c r="N297" s="72">
-        <v>66.561999999999998</v>
+        <v>66.562000000000012</v>
       </c>
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.25">
@@ -22987,13 +22987,13 @@
         <v>17.505000000000003</v>
       </c>
       <c r="L352" s="72">
-        <v>11.573</v>
+        <v>11.572999999999997</v>
       </c>
       <c r="M352" s="72">
         <v>55.534999999999997</v>
       </c>
       <c r="N352" s="72">
-        <v>29.078000000000003</v>
+        <v>29.077999999999999</v>
       </c>
     </row>
     <row r="353" spans="1:14" x14ac:dyDescent="0.25">
@@ -23031,7 +23031,7 @@
         <v>0</v>
       </c>
       <c r="M353" s="72">
-        <v>29.078000000000003</v>
+        <v>29.077999999999999</v>
       </c>
       <c r="N353" s="72">
         <v>0</v>
@@ -23060,7 +23060,7 @@
         <v>70</v>
       </c>
       <c r="K354" s="72">
-        <v>50.451000000000001</v>
+        <v>50.451000000000008</v>
       </c>
       <c r="L354" s="72">
         <v>0</v>
@@ -23069,7 +23069,7 @@
         <v>0</v>
       </c>
       <c r="N354" s="72">
-        <v>50.451000000000001</v>
+        <v>50.451000000000008</v>
       </c>
     </row>
     <row r="355" spans="1:14" x14ac:dyDescent="0.25">
@@ -23107,13 +23107,13 @@
         <v>75.158000000000001</v>
       </c>
       <c r="L355" s="72">
-        <v>41.929999999999993</v>
+        <v>41.930000000000007</v>
       </c>
       <c r="M355" s="72">
         <v>8.5210000000000008</v>
       </c>
       <c r="N355" s="72">
-        <v>117.08799999999999</v>
+        <v>117.08800000000001</v>
       </c>
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.25">
@@ -23148,13 +23148,13 @@
         <v>70</v>
       </c>
       <c r="K356" s="72">
-        <v>33.718000000000004</v>
+        <v>33.717999999999996</v>
       </c>
       <c r="L356" s="72">
-        <v>50.447999999999993</v>
+        <v>50.448</v>
       </c>
       <c r="M356" s="72">
-        <v>66.639999999999986</v>
+        <v>66.64</v>
       </c>
       <c r="N356" s="72">
         <v>84.165999999999997</v>
@@ -23195,13 +23195,13 @@
         <v>4.1950000000000003</v>
       </c>
       <c r="L357" s="72">
-        <v>43.778999999999996</v>
+        <v>43.779000000000003</v>
       </c>
       <c r="M357" s="72">
         <v>40.387</v>
       </c>
       <c r="N357" s="72">
-        <v>47.973999999999997</v>
+        <v>47.974000000000004</v>
       </c>
     </row>
     <row r="358" spans="1:14" x14ac:dyDescent="0.25">
@@ -23312,7 +23312,7 @@
         <v>70</v>
       </c>
       <c r="K360" s="72">
-        <v>85.108000000000004</v>
+        <v>85.108000000000018</v>
       </c>
       <c r="L360" s="72">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="N360" s="72">
-        <v>85.108000000000004</v>
+        <v>85.108000000000018</v>
       </c>
     </row>
     <row r="361" spans="1:14" x14ac:dyDescent="0.25">
@@ -23356,16 +23356,16 @@
         <v>70</v>
       </c>
       <c r="K361" s="72">
-        <v>177.27499999999998</v>
+        <v>177.27500000000001</v>
       </c>
       <c r="L361" s="72">
-        <v>76.45700000000005</v>
+        <v>76.456999999999994</v>
       </c>
       <c r="M361" s="72">
         <v>8.6509999999999998</v>
       </c>
       <c r="N361" s="72">
-        <v>253.73200000000003</v>
+        <v>253.732</v>
       </c>
     </row>
     <row r="362" spans="1:14" x14ac:dyDescent="0.25">
@@ -23400,7 +23400,7 @@
         <v>70</v>
       </c>
       <c r="K362" s="72">
-        <v>25.331</v>
+        <v>25.331000000000003</v>
       </c>
       <c r="L362" s="72">
         <v>40.668999999999997</v>
@@ -23450,7 +23450,7 @@
         <v>32.37700000000001</v>
       </c>
       <c r="M363" s="72">
-        <v>33.623000000000005</v>
+        <v>33.622999999999998</v>
       </c>
       <c r="N363" s="72">
         <v>40.796000000000006</v>
@@ -25876,7 +25876,7 @@
         <v>70</v>
       </c>
       <c r="K421" s="72">
-        <v>28.078000000000003</v>
+        <v>28.077999999999996</v>
       </c>
       <c r="L421" s="72">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="N421" s="72">
-        <v>28.078000000000003</v>
+        <v>28.077999999999996</v>
       </c>
     </row>
     <row r="422" spans="1:14" x14ac:dyDescent="0.25">
@@ -25920,10 +25920,10 @@
         <v>70</v>
       </c>
       <c r="K422" s="72">
-        <v>41.096999999999994</v>
+        <v>41.097000000000001</v>
       </c>
       <c r="L422" s="72">
-        <v>26.987000000000009</v>
+        <v>26.987000000000002</v>
       </c>
       <c r="M422" s="72">
         <v>1.0910000000000002</v>
@@ -26011,13 +26011,13 @@
         <v>33.256</v>
       </c>
       <c r="L424" s="72">
-        <v>65.42</v>
+        <v>65.419999999999987</v>
       </c>
       <c r="M424" s="72">
-        <v>38.402000000000001</v>
+        <v>38.401999999999994</v>
       </c>
       <c r="N424" s="72">
-        <v>98.676000000000002</v>
+        <v>98.675999999999988</v>
       </c>
     </row>
     <row r="425" spans="1:14" x14ac:dyDescent="0.25">
@@ -27740,10 +27740,10 @@
         <v>70</v>
       </c>
       <c r="K465" s="72">
-        <v>26.529</v>
+        <v>26.528999999999996</v>
       </c>
       <c r="L465" s="72">
-        <v>31.327999999999999</v>
+        <v>31.328000000000003</v>
       </c>
       <c r="M465" s="72">
         <v>21.048000000000002</v>
@@ -27784,16 +27784,16 @@
         <v>70</v>
       </c>
       <c r="K466" s="72">
-        <v>12.463000000000001</v>
+        <v>12.462999999999999</v>
       </c>
       <c r="L466" s="72">
-        <v>40.710999999999999</v>
+        <v>40.710999999999991</v>
       </c>
       <c r="M466" s="72">
         <v>17.146000000000001</v>
       </c>
       <c r="N466" s="72">
-        <v>53.173999999999999</v>
+        <v>53.173999999999992</v>
       </c>
     </row>
     <row r="467" spans="1:14" x14ac:dyDescent="0.25">
@@ -27831,13 +27831,13 @@
         <v>30.64</v>
       </c>
       <c r="L467" s="72">
-        <v>31.979999999999997</v>
+        <v>31.980000000000004</v>
       </c>
       <c r="M467" s="72">
-        <v>21.193999999999999</v>
+        <v>21.194000000000003</v>
       </c>
       <c r="N467" s="72">
-        <v>62.62</v>
+        <v>62.620000000000005</v>
       </c>
     </row>
     <row r="468" spans="1:14" x14ac:dyDescent="0.25">
@@ -27878,7 +27878,7 @@
         <v>37.475000000000001</v>
       </c>
       <c r="M468" s="72">
-        <v>25.145</v>
+        <v>25.145000000000003</v>
       </c>
       <c r="N468" s="72">
         <v>38.379000000000005</v>
@@ -29428,7 +29428,7 @@
         <v>70</v>
       </c>
       <c r="K505" s="72">
-        <v>11.732000000000001</v>
+        <v>11.731999999999999</v>
       </c>
       <c r="L505" s="72">
         <v>49.227000000000004</v>
@@ -29472,16 +29472,16 @@
         <v>70</v>
       </c>
       <c r="K506" s="72">
-        <v>9.702</v>
+        <v>9.7019999999999982</v>
       </c>
       <c r="L506" s="72">
-        <v>50.179999999999993</v>
+        <v>50.180000000000007</v>
       </c>
       <c r="M506" s="72">
         <v>10.779</v>
       </c>
       <c r="N506" s="72">
-        <v>59.881999999999991</v>
+        <v>59.882000000000005</v>
       </c>
     </row>
     <row r="507" spans="1:14" x14ac:dyDescent="0.25">
@@ -29516,7 +29516,7 @@
         <v>70</v>
       </c>
       <c r="K507" s="72">
-        <v>189.87300000000002</v>
+        <v>189.87299999999999</v>
       </c>
       <c r="L507" s="72">
         <v>36.65100000000001</v>
@@ -29525,7 +29525,7 @@
         <v>23.231000000000002</v>
       </c>
       <c r="N507" s="72">
-        <v>226.52400000000003</v>
+        <v>226.524</v>
       </c>
     </row>
     <row r="508" spans="1:14" x14ac:dyDescent="0.25">
@@ -29563,13 +29563,13 @@
         <v>40.286999999999992</v>
       </c>
       <c r="L508" s="72">
-        <v>159.762</v>
+        <v>159.76200000000006</v>
       </c>
       <c r="M508" s="72">
         <v>66.762</v>
       </c>
       <c r="N508" s="72">
-        <v>200.04900000000001</v>
+        <v>200.04900000000004</v>
       </c>
     </row>
     <row r="509" spans="1:14" x14ac:dyDescent="0.25">
@@ -29607,7 +29607,7 @@
         <v>0</v>
       </c>
       <c r="M509" s="72">
-        <v>200.04900000000001</v>
+        <v>200.04900000000004</v>
       </c>
       <c r="N509" s="72">
         <v>0</v>
@@ -30896,7 +30896,7 @@
         <v>70</v>
       </c>
       <c r="K540" s="72">
-        <v>70.432999999999993</v>
+        <v>70.433000000000007</v>
       </c>
       <c r="L540" s="72">
         <v>0</v>
@@ -30905,7 +30905,7 @@
         <v>0</v>
       </c>
       <c r="N540" s="72">
-        <v>70.432999999999993</v>
+        <v>70.433000000000007</v>
       </c>
     </row>
     <row r="541" spans="1:14" x14ac:dyDescent="0.25">
@@ -30946,7 +30946,7 @@
         <v>44.814999999999984</v>
       </c>
       <c r="M541" s="72">
-        <v>25.618000000000002</v>
+        <v>25.617999999999999</v>
       </c>
       <c r="N541" s="72">
         <v>81.699999999999989</v>
@@ -30984,16 +30984,16 @@
         <v>70</v>
       </c>
       <c r="K542" s="72">
-        <v>130.79200000000003</v>
+        <v>130.79199999999997</v>
       </c>
       <c r="L542" s="72">
-        <v>45.359999999999985</v>
+        <v>45.360000000000014</v>
       </c>
       <c r="M542" s="72">
         <v>36.340000000000003</v>
       </c>
       <c r="N542" s="72">
-        <v>176.15200000000002</v>
+        <v>176.15199999999999</v>
       </c>
     </row>
     <row r="543" spans="1:14" x14ac:dyDescent="0.25">
@@ -31075,13 +31075,13 @@
         <v>4.8529999999999998</v>
       </c>
       <c r="L544" s="72">
-        <v>94.696000000000026</v>
+        <v>94.696000000000012</v>
       </c>
       <c r="M544" s="72">
         <v>100.70699999999999</v>
       </c>
       <c r="N544" s="72">
-        <v>99.549000000000021</v>
+        <v>99.549000000000007</v>
       </c>
     </row>
     <row r="545" spans="1:14" x14ac:dyDescent="0.25">
@@ -31119,7 +31119,7 @@
         <v>0</v>
       </c>
       <c r="M545" s="72">
-        <v>99.549000000000021</v>
+        <v>99.549000000000007</v>
       </c>
       <c r="N545" s="72">
         <v>0</v>
@@ -32203,13 +32203,13 @@
         <v>175.959</v>
       </c>
       <c r="L571" s="72">
-        <v>70.888000000000034</v>
+        <v>70.887999999999977</v>
       </c>
       <c r="M571" s="72">
         <v>1.75</v>
       </c>
       <c r="N571" s="72">
-        <v>246.84700000000004</v>
+        <v>246.84699999999998</v>
       </c>
     </row>
     <row r="572" spans="1:14" x14ac:dyDescent="0.25">
@@ -32288,10 +32288,10 @@
         <v>70</v>
       </c>
       <c r="K573" s="72">
-        <v>57.516999999999996</v>
+        <v>57.51700000000001</v>
       </c>
       <c r="L573" s="72">
-        <v>82.105000000000018</v>
+        <v>82.105000000000004</v>
       </c>
       <c r="M573" s="72">
         <v>62.152000000000001</v>
@@ -32452,7 +32452,7 @@
         <v>70</v>
       </c>
       <c r="K577" s="72">
-        <v>52.697999999999993</v>
+        <v>52.698</v>
       </c>
       <c r="L577" s="72">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="N577" s="72">
-        <v>52.697999999999993</v>
+        <v>52.698</v>
       </c>
     </row>
     <row r="578" spans="1:14" x14ac:dyDescent="0.25">
@@ -34272,16 +34272,16 @@
         <v>70</v>
       </c>
       <c r="K620" s="72">
-        <v>28.588000000000001</v>
+        <v>28.587999999999997</v>
       </c>
       <c r="L620" s="72">
-        <v>40.020000000000003</v>
+        <v>40.019999999999996</v>
       </c>
       <c r="M620" s="72">
         <v>12.212</v>
       </c>
       <c r="N620" s="72">
-        <v>68.608000000000004</v>
+        <v>68.60799999999999</v>
       </c>
     </row>
     <row r="621" spans="1:14" x14ac:dyDescent="0.25">
@@ -34363,13 +34363,13 @@
         <v>95.775000000000006</v>
       </c>
       <c r="L622" s="72">
-        <v>88.383999999999986</v>
+        <v>88.384000000000015</v>
       </c>
       <c r="M622" s="72">
         <v>10.713000000000001</v>
       </c>
       <c r="N622" s="72">
-        <v>184.15899999999999</v>
+        <v>184.15900000000002</v>
       </c>
     </row>
     <row r="623" spans="1:14" x14ac:dyDescent="0.25">
@@ -34407,13 +34407,13 @@
         <v>10.695</v>
       </c>
       <c r="L623" s="72">
-        <v>38.000999999999998</v>
+        <v>38.001000000000005</v>
       </c>
       <c r="M623" s="72">
         <v>146.15800000000002</v>
       </c>
       <c r="N623" s="72">
-        <v>48.695999999999998</v>
+        <v>48.696000000000005</v>
       </c>
     </row>
     <row r="624" spans="1:14" x14ac:dyDescent="0.25">
@@ -35890,7 +35890,7 @@
         <v>72.912999999999997</v>
       </c>
       <c r="M658" s="72">
-        <v>46.794000000000004</v>
+        <v>46.793999999999997</v>
       </c>
       <c r="N658" s="72">
         <v>163.62299999999999</v>
@@ -35928,13 +35928,13 @@
         <v>70</v>
       </c>
       <c r="K659" s="72">
-        <v>75.646000000000015</v>
+        <v>75.645999999999987</v>
       </c>
       <c r="L659" s="72">
-        <v>112.34699999999998</v>
+        <v>112.34700000000001</v>
       </c>
       <c r="M659" s="72">
-        <v>51.275999999999996</v>
+        <v>51.27600000000001</v>
       </c>
       <c r="N659" s="72">
         <v>187.99299999999999</v>
@@ -36051,13 +36051,13 @@
         <v>51.8</v>
       </c>
       <c r="L662" s="72">
-        <v>85.291000000000011</v>
+        <v>85.291000000000039</v>
       </c>
       <c r="M662" s="72">
         <v>3.7280000000000002</v>
       </c>
       <c r="N662" s="72">
-        <v>137.09100000000001</v>
+        <v>137.09100000000004</v>
       </c>
     </row>
     <row r="663" spans="1:14" x14ac:dyDescent="0.25">
@@ -36092,7 +36092,7 @@
         <v>70</v>
       </c>
       <c r="K663" s="72">
-        <v>16.674999999999997</v>
+        <v>16.675000000000001</v>
       </c>
       <c r="L663" s="72">
         <v>129.23500000000001</v>
@@ -36101,7 +36101,7 @@
         <v>7.8559999999999999</v>
       </c>
       <c r="N663" s="72">
-        <v>145.91</v>
+        <v>145.91000000000003</v>
       </c>
     </row>
     <row r="664" spans="1:14" x14ac:dyDescent="0.25">
@@ -37666,7 +37666,7 @@
         <v>41.654000000000011</v>
       </c>
       <c r="M700" s="72">
-        <v>57.978999999999999</v>
+        <v>57.979000000000006</v>
       </c>
       <c r="N700" s="72">
         <v>73.174000000000007</v>
@@ -37710,7 +37710,7 @@
         <v>46.726000000000006</v>
       </c>
       <c r="M701" s="72">
-        <v>26.448</v>
+        <v>26.448000000000004</v>
       </c>
       <c r="N701" s="72">
         <v>48.102000000000004</v>
@@ -37827,13 +37827,13 @@
         <v>18.899000000000001</v>
       </c>
       <c r="L704" s="72">
-        <v>43.972000000000001</v>
+        <v>43.971999999999994</v>
       </c>
       <c r="M704" s="72">
         <v>21.991</v>
       </c>
       <c r="N704" s="72">
-        <v>62.871000000000002</v>
+        <v>62.870999999999995</v>
       </c>
     </row>
     <row r="705" spans="1:14" x14ac:dyDescent="0.25">
@@ -37874,7 +37874,7 @@
         <v>20.347999999999999</v>
       </c>
       <c r="M705" s="72">
-        <v>42.522999999999996</v>
+        <v>42.52300000000001</v>
       </c>
       <c r="N705" s="72">
         <v>64.771000000000001</v>
@@ -37912,13 +37912,13 @@
         <v>70</v>
       </c>
       <c r="K706" s="72">
-        <v>24.785000000000004</v>
+        <v>24.785</v>
       </c>
       <c r="L706" s="72">
-        <v>35.378999999999998</v>
+        <v>35.379000000000005</v>
       </c>
       <c r="M706" s="72">
-        <v>29.391999999999999</v>
+        <v>29.392000000000003</v>
       </c>
       <c r="N706" s="72">
         <v>60.164000000000001</v>
@@ -39348,10 +39348,10 @@
         <v>70</v>
       </c>
       <c r="K740" s="72">
-        <v>64.550000000000011</v>
+        <v>64.55</v>
       </c>
       <c r="L740" s="72">
-        <v>41.510999999999996</v>
+        <v>41.51100000000001</v>
       </c>
       <c r="M740" s="72">
         <v>5.58</v>
@@ -39392,10 +39392,10 @@
         <v>70</v>
       </c>
       <c r="K741" s="72">
-        <v>74.028000000000006</v>
+        <v>74.027999999999992</v>
       </c>
       <c r="L741" s="72">
-        <v>90.885999999999981</v>
+        <v>90.885999999999996</v>
       </c>
       <c r="M741" s="72">
         <v>15.175000000000001</v>
@@ -39439,13 +39439,13 @@
         <v>64.268000000000001</v>
       </c>
       <c r="L742" s="72">
-        <v>62.853999999999985</v>
+        <v>62.854000000000013</v>
       </c>
       <c r="M742" s="72">
         <v>102.06</v>
       </c>
       <c r="N742" s="72">
-        <v>127.12199999999999</v>
+        <v>127.12200000000001</v>
       </c>
     </row>
     <row r="743" spans="1:14" x14ac:dyDescent="0.25">
@@ -39600,16 +39600,16 @@
         <v>70</v>
       </c>
       <c r="K746" s="72">
-        <v>9.1700000000000017</v>
+        <v>9.17</v>
       </c>
       <c r="L746" s="72">
-        <v>30.752000000000002</v>
+        <v>30.751999999999995</v>
       </c>
       <c r="M746" s="72">
         <v>23.917999999999999</v>
       </c>
       <c r="N746" s="72">
-        <v>39.922000000000004</v>
+        <v>39.921999999999997</v>
       </c>
     </row>
     <row r="747" spans="1:14" x14ac:dyDescent="0.25">
@@ -41332,7 +41332,7 @@
         <v>70</v>
       </c>
       <c r="K787" s="72">
-        <v>129.24800000000002</v>
+        <v>129.24799999999999</v>
       </c>
       <c r="L787" s="72">
         <v>0</v>
@@ -41341,7 +41341,7 @@
         <v>0</v>
       </c>
       <c r="N787" s="72">
-        <v>129.24800000000002</v>
+        <v>129.24799999999999</v>
       </c>
     </row>
     <row r="788" spans="1:14" x14ac:dyDescent="0.25">
@@ -41420,10 +41420,10 @@
         <v>70</v>
       </c>
       <c r="K789" s="72">
-        <v>47.339999999999996</v>
+        <v>47.339999999999989</v>
       </c>
       <c r="L789" s="72">
-        <v>46.437999999999995</v>
+        <v>46.438000000000002</v>
       </c>
       <c r="M789" s="72">
         <v>107.40700000000001</v>
@@ -41511,13 +41511,13 @@
         <v>10.834</v>
       </c>
       <c r="L791" s="72">
-        <v>21.989000000000001</v>
+        <v>21.989000000000008</v>
       </c>
       <c r="M791" s="72">
-        <v>47.945000000000007</v>
+        <v>47.945</v>
       </c>
       <c r="N791" s="72">
-        <v>32.823</v>
+        <v>32.823000000000008</v>
       </c>
     </row>
     <row r="792" spans="1:14" x14ac:dyDescent="0.25">
@@ -42856,16 +42856,16 @@
         <v>70</v>
       </c>
       <c r="K823" s="72">
-        <v>49.724999999999994</v>
+        <v>49.725000000000001</v>
       </c>
       <c r="L823" s="72">
-        <v>68.882000000000019</v>
+        <v>68.882000000000005</v>
       </c>
       <c r="M823" s="72">
         <v>14.457000000000001</v>
       </c>
       <c r="N823" s="72">
-        <v>118.60700000000001</v>
+        <v>118.607</v>
       </c>
     </row>
     <row r="824" spans="1:14" x14ac:dyDescent="0.25">
@@ -42944,7 +42944,7 @@
         <v>70</v>
       </c>
       <c r="K825" s="72">
-        <v>93.777999999999992</v>
+        <v>93.77800000000002</v>
       </c>
       <c r="L825" s="72">
         <v>33.932999999999993</v>
@@ -42953,7 +42953,7 @@
         <v>89.590999999999994</v>
       </c>
       <c r="N825" s="72">
-        <v>127.71099999999998</v>
+        <v>127.71100000000001</v>
       </c>
     </row>
     <row r="826" spans="1:14" x14ac:dyDescent="0.25">
@@ -44667,13 +44667,13 @@
         <v>47.606000000000009</v>
       </c>
       <c r="L866" s="72">
-        <v>41.700999999999979</v>
+        <v>41.700999999999993</v>
       </c>
       <c r="M866" s="72">
         <v>148.75100000000003</v>
       </c>
       <c r="N866" s="72">
-        <v>89.306999999999988</v>
+        <v>89.307000000000002</v>
       </c>
     </row>
     <row r="867" spans="1:14" x14ac:dyDescent="0.25">
@@ -44711,13 +44711,13 @@
         <v>10.298000000000002</v>
       </c>
       <c r="L867" s="72">
-        <v>36.795999999999992</v>
+        <v>36.796000000000006</v>
       </c>
       <c r="M867" s="72">
-        <v>52.510999999999996</v>
+        <v>52.511000000000003</v>
       </c>
       <c r="N867" s="72">
-        <v>47.093999999999994</v>
+        <v>47.094000000000008</v>
       </c>
     </row>
     <row r="868" spans="1:14" x14ac:dyDescent="0.25">
@@ -44758,7 +44758,7 @@
         <v>25.707000000000001</v>
       </c>
       <c r="M868" s="72">
-        <v>21.387</v>
+        <v>21.386999999999997</v>
       </c>
       <c r="N868" s="72">
         <v>48.863</v>
@@ -46088,7 +46088,7 @@
         <v>70</v>
       </c>
       <c r="K900" s="72">
-        <v>65.656999999999996</v>
+        <v>65.656999999999982</v>
       </c>
       <c r="L900" s="72">
         <v>0</v>
@@ -46097,7 +46097,7 @@
         <v>0</v>
       </c>
       <c r="N900" s="72">
-        <v>65.656999999999996</v>
+        <v>65.656999999999982</v>
       </c>
     </row>
     <row r="901" spans="1:14" x14ac:dyDescent="0.25">
@@ -47600,7 +47600,7 @@
         <v>70</v>
       </c>
       <c r="K936" s="72">
-        <v>43.905999999999992</v>
+        <v>43.905999999999999</v>
       </c>
       <c r="L936" s="72">
         <v>0</v>
@@ -47609,7 +47609,7 @@
         <v>0</v>
       </c>
       <c r="N936" s="72">
-        <v>43.905999999999992</v>
+        <v>43.905999999999999</v>
       </c>
     </row>
     <row r="937" spans="1:14" x14ac:dyDescent="0.25">
@@ -47688,16 +47688,16 @@
         <v>70</v>
       </c>
       <c r="K938" s="72">
-        <v>54.173999999999999</v>
+        <v>54.174000000000007</v>
       </c>
       <c r="L938" s="72">
-        <v>47.908999999999999</v>
+        <v>47.908999999999978</v>
       </c>
       <c r="M938" s="72">
         <v>20.246000000000002</v>
       </c>
       <c r="N938" s="72">
-        <v>102.083</v>
+        <v>102.08299999999998</v>
       </c>
     </row>
     <row r="939" spans="1:14" x14ac:dyDescent="0.25">
@@ -47732,10 +47732,10 @@
         <v>70</v>
       </c>
       <c r="K939" s="72">
-        <v>19.91</v>
+        <v>19.909999999999997</v>
       </c>
       <c r="L939" s="72">
-        <v>30.100000000000005</v>
+        <v>30.100000000000009</v>
       </c>
       <c r="M939" s="72">
         <v>71.983000000000004</v>
@@ -49112,7 +49112,7 @@
         <v>70</v>
       </c>
       <c r="K972" s="72">
-        <v>243.40199999999999</v>
+        <v>243.40200000000002</v>
       </c>
       <c r="L972" s="72">
         <v>0</v>
@@ -49121,7 +49121,7 @@
         <v>0</v>
       </c>
       <c r="N972" s="72">
-        <v>243.40199999999999</v>
+        <v>243.40200000000002</v>
       </c>
     </row>
     <row r="973" spans="1:14" x14ac:dyDescent="0.25">
@@ -49156,16 +49156,16 @@
         <v>70</v>
       </c>
       <c r="K973" s="72">
-        <v>75.704999999999998</v>
+        <v>75.704999999999984</v>
       </c>
       <c r="L973" s="72">
-        <v>146.59600000000006</v>
+        <v>146.596</v>
       </c>
       <c r="M973" s="72">
-        <v>96.805999999999997</v>
+        <v>96.806000000000012</v>
       </c>
       <c r="N973" s="72">
-        <v>222.30100000000004</v>
+        <v>222.30099999999999</v>
       </c>
     </row>
     <row r="974" spans="1:14" x14ac:dyDescent="0.25">
@@ -49200,16 +49200,16 @@
         <v>70</v>
       </c>
       <c r="K974" s="72">
-        <v>28.137999999999998</v>
+        <v>28.138000000000002</v>
       </c>
       <c r="L974" s="72">
-        <v>167.42700000000002</v>
+        <v>167.42699999999999</v>
       </c>
       <c r="M974" s="72">
-        <v>54.874000000000002</v>
+        <v>54.873999999999995</v>
       </c>
       <c r="N974" s="72">
-        <v>195.56500000000003</v>
+        <v>195.565</v>
       </c>
     </row>
     <row r="975" spans="1:14" x14ac:dyDescent="0.25">
@@ -49247,13 +49247,13 @@
         <v>5.5090000000000003</v>
       </c>
       <c r="L975" s="72">
-        <v>142.85200000000003</v>
+        <v>142.85199999999998</v>
       </c>
       <c r="M975" s="72">
-        <v>52.712999999999994</v>
+        <v>52.713000000000001</v>
       </c>
       <c r="N975" s="72">
-        <v>148.36100000000002</v>
+        <v>148.36099999999999</v>
       </c>
     </row>
     <row r="976" spans="1:14" x14ac:dyDescent="0.25">
@@ -49294,7 +49294,7 @@
         <v>126.89600000000002</v>
       </c>
       <c r="M976" s="72">
-        <v>21.465000000000003</v>
+        <v>21.465</v>
       </c>
       <c r="N976" s="72">
         <v>138.42000000000002</v>
@@ -50712,10 +50712,10 @@
         <v>70</v>
       </c>
       <c r="K1010" s="72">
-        <v>59.943000000000005</v>
+        <v>59.943000000000012</v>
       </c>
       <c r="L1010" s="72">
-        <v>34.568999999999996</v>
+        <v>34.568999999999988</v>
       </c>
       <c r="M1010" s="72">
         <v>2.4500000000000002</v>
@@ -50756,7 +50756,7 @@
         <v>70</v>
       </c>
       <c r="K1011" s="72">
-        <v>46.258000000000003</v>
+        <v>46.257999999999996</v>
       </c>
       <c r="L1011" s="72">
         <v>80.795000000000016</v>
@@ -50803,13 +50803,13 @@
         <v>21.326000000000001</v>
       </c>
       <c r="L1012" s="72">
-        <v>69.39100000000002</v>
+        <v>69.390999999999991</v>
       </c>
       <c r="M1012" s="72">
-        <v>57.661999999999999</v>
+        <v>57.662000000000006</v>
       </c>
       <c r="N1012" s="72">
-        <v>90.717000000000013</v>
+        <v>90.716999999999999</v>
       </c>
     </row>
     <row r="1013" spans="1:14" x14ac:dyDescent="0.25">
@@ -50847,7 +50847,7 @@
         <v>0</v>
       </c>
       <c r="M1013" s="72">
-        <v>90.717000000000013</v>
+        <v>90.716999999999999</v>
       </c>
       <c r="N1013" s="72">
         <v>0</v>
@@ -52136,16 +52136,16 @@
         <v>70</v>
       </c>
       <c r="K1044" s="72">
-        <v>25.315000000000001</v>
+        <v>25.314999999999998</v>
       </c>
       <c r="L1044" s="72">
-        <v>88.734000000000009</v>
+        <v>88.733999999999995</v>
       </c>
       <c r="M1044" s="72">
         <v>25.396999999999998</v>
       </c>
       <c r="N1044" s="72">
-        <v>114.04900000000001</v>
+        <v>114.04899999999999</v>
       </c>
     </row>
     <row r="1045" spans="1:14" x14ac:dyDescent="0.25">
@@ -52224,16 +52224,16 @@
         <v>70</v>
       </c>
       <c r="K1046" s="72">
-        <v>55.449999999999996</v>
+        <v>55.45</v>
       </c>
       <c r="L1046" s="72">
-        <v>95.858000000000004</v>
+        <v>95.858000000000018</v>
       </c>
       <c r="M1046" s="72">
-        <v>23.257000000000001</v>
+        <v>23.256999999999998</v>
       </c>
       <c r="N1046" s="72">
-        <v>151.30799999999999</v>
+        <v>151.30800000000002</v>
       </c>
     </row>
     <row r="1047" spans="1:14" x14ac:dyDescent="0.25">
@@ -52271,7 +52271,7 @@
         <v>0</v>
       </c>
       <c r="M1047" s="72">
-        <v>151.30799999999999</v>
+        <v>151.30800000000002</v>
       </c>
       <c r="N1047" s="72">
         <v>0</v>
@@ -53340,7 +53340,7 @@
         <v>70</v>
       </c>
       <c r="K1073" s="72">
-        <v>6.8640000000000008</v>
+        <v>6.8639999999999999</v>
       </c>
       <c r="L1073" s="72">
         <v>0</v>
@@ -53349,7 +53349,7 @@
         <v>0</v>
       </c>
       <c r="N1073" s="72">
-        <v>6.8640000000000008</v>
+        <v>6.8639999999999999</v>
       </c>
     </row>
     <row r="1074" spans="1:14" x14ac:dyDescent="0.25">
@@ -53384,10 +53384,10 @@
         <v>70</v>
       </c>
       <c r="K1074" s="72">
-        <v>26.934000000000001</v>
+        <v>26.933999999999997</v>
       </c>
       <c r="L1074" s="72">
-        <v>2.291999999999998</v>
+        <v>2.2920000000000016</v>
       </c>
       <c r="M1074" s="72">
         <v>4.5720000000000001</v>
@@ -53428,10 +53428,10 @@
         <v>70</v>
       </c>
       <c r="K1075" s="72">
-        <v>31.438000000000002</v>
+        <v>31.437999999999999</v>
       </c>
       <c r="L1075" s="72">
-        <v>27.949999999999996</v>
+        <v>27.95</v>
       </c>
       <c r="M1075" s="72">
         <v>1.276</v>
@@ -54635,13 +54635,13 @@
         <v>26.526000000000003</v>
       </c>
       <c r="L1104" s="72">
-        <v>104.62100000000001</v>
+        <v>104.62099999999998</v>
       </c>
       <c r="M1104" s="72">
         <v>3.1779999999999999</v>
       </c>
       <c r="N1104" s="72">
-        <v>131.14700000000002</v>
+        <v>131.14699999999999</v>
       </c>
     </row>
     <row r="1105" spans="1:14" x14ac:dyDescent="0.25">
@@ -54676,16 +54676,16 @@
         <v>70</v>
       </c>
       <c r="K1105" s="72">
-        <v>30.522000000000002</v>
+        <v>30.521999999999998</v>
       </c>
       <c r="L1105" s="72">
-        <v>104.12499999999999</v>
+        <v>104.12500000000003</v>
       </c>
       <c r="M1105" s="72">
         <v>27.021999999999998</v>
       </c>
       <c r="N1105" s="72">
-        <v>134.64699999999999</v>
+        <v>134.64700000000002</v>
       </c>
     </row>
     <row r="1106" spans="1:14" x14ac:dyDescent="0.25">
@@ -54723,13 +54723,13 @@
         <v>6.2039999999999997</v>
       </c>
       <c r="L1106" s="72">
-        <v>47.412999999999997</v>
+        <v>47.413000000000004</v>
       </c>
       <c r="M1106" s="72">
         <v>87.234000000000009</v>
       </c>
       <c r="N1106" s="72">
-        <v>53.616999999999997</v>
+        <v>53.617000000000004</v>
       </c>
     </row>
     <row r="1107" spans="1:14" x14ac:dyDescent="0.25">
@@ -54767,7 +54767,7 @@
         <v>0</v>
       </c>
       <c r="M1107" s="72">
-        <v>53.616999999999997</v>
+        <v>53.617000000000004</v>
       </c>
       <c r="N1107" s="72">
         <v>0</v>
@@ -59627,13 +59627,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="72">
-        <v>111.85850000000005</v>
+        <v>111.85850000000003</v>
       </c>
       <c r="H6" s="72">
         <v>70</v>
       </c>
       <c r="I6" s="76">
-        <v>1.5979785714285721</v>
+        <v>1.5979785714285719</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -59656,13 +59656,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="72">
-        <v>39.079499999999989</v>
+        <v>39.07950000000001</v>
       </c>
       <c r="H7" s="72">
         <v>70</v>
       </c>
       <c r="I7" s="76">
-        <v>0.55827857142857129</v>
+        <v>0.55827857142857162</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -59714,13 +59714,13 @@
         <v>0</v>
       </c>
       <c r="G9" s="72">
-        <v>50.602500000000006</v>
+        <v>50.602500000000013</v>
       </c>
       <c r="H9" s="72">
         <v>210</v>
       </c>
       <c r="I9" s="76">
-        <v>0.24096428571428574</v>
+        <v>0.24096428571428577</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -59772,13 +59772,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="72">
-        <v>29.437249999999999</v>
+        <v>29.437250000000002</v>
       </c>
       <c r="H11" s="72">
         <v>70</v>
       </c>
       <c r="I11" s="76">
-        <v>0.42053214285714285</v>
+        <v>0.42053214285714291</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -59801,13 +59801,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="72">
-        <v>30.651249999999997</v>
+        <v>30.651250000000005</v>
       </c>
       <c r="H12" s="72">
         <v>70</v>
       </c>
       <c r="I12" s="76">
-        <v>0.43787499999999996</v>
+        <v>0.43787500000000007</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -59859,13 +59859,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="72">
-        <v>50.892250000000011</v>
+        <v>50.892249999999997</v>
       </c>
       <c r="H14" s="72">
         <v>70</v>
       </c>
       <c r="I14" s="76">
-        <v>0.72703214285714302</v>
+        <v>0.72703214285714279</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -59888,13 +59888,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="72">
-        <v>72.554250000000025</v>
+        <v>72.55425000000001</v>
       </c>
       <c r="H15" s="72">
         <v>70</v>
       </c>
       <c r="I15" s="76">
-        <v>1.036489285714286</v>
+        <v>1.0364892857142858</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -59917,13 +59917,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="72">
-        <v>163.57449999999992</v>
+        <v>163.57450000000003</v>
       </c>
       <c r="H16" s="72">
         <v>70</v>
       </c>
       <c r="I16" s="76">
-        <v>2.33677857142857</v>
+        <v>2.3367785714285718</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -59946,13 +59946,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="72">
-        <v>52.142749999999985</v>
+        <v>52.142749999999999</v>
       </c>
       <c r="H17" s="72">
         <v>70</v>
       </c>
       <c r="I17" s="76">
-        <v>0.74489642857142835</v>
+        <v>0.74489642857142857</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -60004,13 +60004,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="72">
-        <v>49.060749999999985</v>
+        <v>49.060749999999999</v>
       </c>
       <c r="H19" s="72">
         <v>70</v>
       </c>
       <c r="I19" s="76">
-        <v>0.70086785714285693</v>
+        <v>0.70086785714285715</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -60033,7 +60033,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="72">
-        <v>27.189499999999995</v>
+        <v>27.189499999999999</v>
       </c>
       <c r="H20" s="72">
         <v>70</v>
@@ -60062,13 +60062,13 @@
         <v>0</v>
       </c>
       <c r="G21" s="72">
-        <v>23.406500000000001</v>
+        <v>23.406499999999994</v>
       </c>
       <c r="H21" s="72">
         <v>70</v>
       </c>
       <c r="I21" s="76">
-        <v>0.33437857142857147</v>
+        <v>0.33437857142857136</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -60091,13 +60091,13 @@
         <v>0</v>
       </c>
       <c r="G22" s="72">
-        <v>33.140999999999998</v>
+        <v>33.14100000000002</v>
       </c>
       <c r="H22" s="72">
         <v>140</v>
       </c>
       <c r="I22" s="76">
-        <v>0.23672142857142855</v>
+        <v>0.23672142857142872</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -60120,13 +60120,13 @@
         <v>0</v>
       </c>
       <c r="G23" s="72">
-        <v>36.368999999999993</v>
+        <v>36.369</v>
       </c>
       <c r="H23" s="72">
         <v>140</v>
       </c>
       <c r="I23" s="76">
-        <v>0.25977857142857136</v>
+        <v>0.25977857142857141</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -60149,13 +60149,13 @@
         <v>0</v>
       </c>
       <c r="G24" s="72">
-        <v>83.860499999999988</v>
+        <v>83.860500000000002</v>
       </c>
       <c r="H24" s="72">
         <v>140</v>
       </c>
       <c r="I24" s="76">
-        <v>0.5990035714285713</v>
+        <v>0.59900357142857141</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -60178,13 +60178,13 @@
         <v>0</v>
       </c>
       <c r="G25" s="72">
-        <v>56.841499999999996</v>
+        <v>56.841500000000011</v>
       </c>
       <c r="H25" s="72">
         <v>140</v>
       </c>
       <c r="I25" s="76">
-        <v>0.40601071428571428</v>
+        <v>0.40601071428571434</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -60207,13 +60207,13 @@
         <v>0</v>
       </c>
       <c r="G26" s="72">
-        <v>180.26925000000008</v>
+        <v>180.26924999999997</v>
       </c>
       <c r="H26" s="72">
         <v>210</v>
       </c>
       <c r="I26" s="76">
-        <v>0.85842500000000044</v>
+        <v>0.85842499999999988</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -60236,13 +60236,13 @@
         <v>0</v>
       </c>
       <c r="G27" s="72">
-        <v>51.576000000000015</v>
+        <v>51.575999999999986</v>
       </c>
       <c r="H27" s="72">
         <v>210</v>
       </c>
       <c r="I27" s="76">
-        <v>0.24560000000000007</v>
+        <v>0.24559999999999993</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -60265,13 +60265,13 @@
         <v>0</v>
       </c>
       <c r="G28" s="72">
-        <v>146.81224999999998</v>
+        <v>146.81225000000001</v>
       </c>
       <c r="H28" s="72">
         <v>210</v>
       </c>
       <c r="I28" s="76">
-        <v>0.6991059523809523</v>
+        <v>0.69910595238095241</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -60294,13 +60294,13 @@
         <v>0</v>
       </c>
       <c r="G29" s="72">
-        <v>99.472749999999962</v>
+        <v>99.472750000000005</v>
       </c>
       <c r="H29" s="72">
         <v>210</v>
       </c>
       <c r="I29" s="76">
-        <v>0.47367976190476174</v>
+        <v>0.47367976190476191</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -60323,13 +60323,13 @@
         <v>0</v>
       </c>
       <c r="G30" s="72">
-        <v>90.604499999999973</v>
+        <v>90.604499999999987</v>
       </c>
       <c r="H30" s="72">
         <v>210</v>
       </c>
       <c r="I30" s="76">
-        <v>0.43144999999999989</v>
+        <v>0.43144999999999994</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -60381,13 +60381,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="72">
-        <v>95.477750000000043</v>
+        <v>95.477749999999986</v>
       </c>
       <c r="H32" s="72">
         <v>280</v>
       </c>
       <c r="I32" s="76">
-        <v>0.34099196428571443</v>
+        <v>0.34099196428571421</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -60410,13 +60410,13 @@
         <v>0</v>
       </c>
       <c r="G33" s="72">
-        <v>105.28799999999997</v>
+        <v>105.28799999999998</v>
       </c>
       <c r="H33" s="72">
         <v>280</v>
       </c>
       <c r="I33" s="76">
-        <v>0.37602857142857132</v>
+        <v>0.37602857142857138</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -60439,13 +60439,13 @@
         <v>0</v>
       </c>
       <c r="G34" s="72">
-        <v>398.36324999999971</v>
+        <v>398.36324999999977</v>
       </c>
       <c r="H34" s="72">
         <v>280</v>
       </c>
       <c r="I34" s="76">
-        <v>1.4227258928571418</v>
+        <v>1.422725892857142</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -60468,13 +60468,13 @@
         <v>0</v>
       </c>
       <c r="G35" s="72">
-        <v>177.98599999999996</v>
+        <v>177.98600000000008</v>
       </c>
       <c r="H35" s="72">
         <v>280</v>
       </c>
       <c r="I35" s="76">
-        <v>0.63566428571428557</v>
+        <v>0.63566428571428601</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -60497,13 +60497,13 @@
         <v>0</v>
       </c>
       <c r="G36" s="72">
-        <v>50.268500000000003</v>
+        <v>50.26850000000001</v>
       </c>
       <c r="H36" s="72">
         <v>140</v>
       </c>
       <c r="I36" s="76">
-        <v>0.35906071428571429</v>
+        <v>0.35906071428571434</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -60526,13 +60526,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="72">
-        <v>62.477750000000064</v>
+        <v>62.477750000000022</v>
       </c>
       <c r="H37" s="72">
         <v>140</v>
       </c>
       <c r="I37" s="76">
-        <v>0.44626964285714332</v>
+        <v>0.44626964285714299</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -60584,13 +60584,13 @@
         <v>0</v>
       </c>
       <c r="G39" s="72">
-        <v>48.132249999999992</v>
+        <v>48.132249999999999</v>
       </c>
       <c r="H39" s="72">
         <v>140</v>
       </c>
       <c r="I39" s="76">
-        <v>0.34380178571428566</v>
+        <v>0.34380178571428571</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -60671,13 +60671,13 @@
         <v>0</v>
       </c>
       <c r="G42" s="72">
-        <v>162.37125</v>
+        <v>162.37124999999997</v>
       </c>
       <c r="H42" s="72">
         <v>280</v>
       </c>
       <c r="I42" s="76">
-        <v>0.57989732142857142</v>
+        <v>0.57989732142857131</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -60729,13 +60729,13 @@
         <v>0</v>
       </c>
       <c r="G44" s="72">
-        <v>74.606000000000037</v>
+        <v>74.606000000000051</v>
       </c>
       <c r="H44" s="72">
         <v>70</v>
       </c>
       <c r="I44" s="76">
-        <v>1.0658000000000005</v>
+        <v>1.0658000000000007</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -60787,13 +60787,13 @@
         <v>0</v>
       </c>
       <c r="G46" s="72">
-        <v>347.02499999999969</v>
+        <v>347.02499999999998</v>
       </c>
       <c r="H46" s="72">
         <v>350</v>
       </c>
       <c r="I46" s="76">
-        <v>0.99149999999999916</v>
+        <v>0.99149999999999994</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -60816,13 +60816,13 @@
         <v>0</v>
       </c>
       <c r="G47" s="72">
-        <v>131.87499999999997</v>
+        <v>131.875</v>
       </c>
       <c r="H47" s="72">
         <v>350</v>
       </c>
       <c r="I47" s="76">
-        <v>0.37678571428571422</v>
+        <v>0.37678571428571428</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -60845,13 +60845,13 @@
         <v>0</v>
       </c>
       <c r="G48" s="72">
-        <v>61.226999999999997</v>
+        <v>61.227000000000011</v>
       </c>
       <c r="H48" s="72">
         <v>210</v>
       </c>
       <c r="I48" s="76">
-        <v>0.29155714285714285</v>
+        <v>0.2915571428571429</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -60874,13 +60874,13 @@
         <v>0</v>
       </c>
       <c r="G49" s="72">
-        <v>153.58499999999998</v>
+        <v>153.58499999999995</v>
       </c>
       <c r="H49" s="72">
         <v>210</v>
       </c>
       <c r="I49" s="76">
-        <v>0.73135714285714271</v>
+        <v>0.73135714285714259</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -60903,13 +60903,13 @@
         <v>0</v>
       </c>
       <c r="G50" s="72">
-        <v>137.98575</v>
+        <v>137.98575000000002</v>
       </c>
       <c r="H50" s="72">
         <v>210</v>
       </c>
       <c r="I50" s="76">
-        <v>0.65707499999999996</v>
+        <v>0.65707500000000008</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -60932,13 +60932,13 @@
         <v>0</v>
       </c>
       <c r="G51" s="72">
-        <v>220.72674999999998</v>
+        <v>220.72675000000004</v>
       </c>
       <c r="H51" s="72">
         <v>210</v>
       </c>
       <c r="I51" s="76">
-        <v>1.0510797619047618</v>
+        <v>1.051079761904762</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -60961,13 +60961,13 @@
         <v>0</v>
       </c>
       <c r="G52" s="72">
-        <v>185.80450000000005</v>
+        <v>185.80449999999999</v>
       </c>
       <c r="H52" s="72">
         <v>280</v>
       </c>
       <c r="I52" s="76">
-        <v>0.66358750000000022</v>
+        <v>0.6635875</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -60990,13 +60990,13 @@
         <v>0</v>
       </c>
       <c r="G53" s="72">
-        <v>273.93675000000002</v>
+        <v>273.93674999999985</v>
       </c>
       <c r="H53" s="72">
         <v>280</v>
       </c>
       <c r="I53" s="76">
-        <v>0.97834553571428573</v>
+        <v>0.97834553571428517</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -61019,13 +61019,13 @@
         <v>0</v>
       </c>
       <c r="G54" s="72">
-        <v>43.967250000000014</v>
+        <v>43.96725</v>
       </c>
       <c r="H54" s="72">
         <v>70</v>
       </c>
       <c r="I54" s="76">
-        <v>0.62810357142857165</v>
+        <v>0.62810357142857143</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -61077,13 +61077,13 @@
         <v>0</v>
       </c>
       <c r="G56" s="72">
-        <v>104.12774999999999</v>
+        <v>104.12775000000008</v>
       </c>
       <c r="H56" s="72">
         <v>140</v>
       </c>
       <c r="I56" s="76">
-        <v>0.74376964285714275</v>
+        <v>0.74376964285714342</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -61106,13 +61106,13 @@
         <v>0</v>
       </c>
       <c r="G57" s="72">
-        <v>77.80100000000003</v>
+        <v>77.801000000000002</v>
       </c>
       <c r="H57" s="72">
         <v>140</v>
       </c>
       <c r="I57" s="76">
-        <v>0.55572142857142881</v>
+        <v>0.55572142857142859</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -61193,13 +61193,13 @@
         <v>0</v>
       </c>
       <c r="G60" s="72">
-        <v>104.94825</v>
+        <v>104.94824999999999</v>
       </c>
       <c r="H60" s="72">
         <v>70</v>
       </c>
       <c r="I60" s="76">
-        <v>1.4992607142857144</v>
+        <v>1.4992607142857142</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -61222,13 +61222,13 @@
         <v>0</v>
       </c>
       <c r="G61" s="72">
-        <v>46.740250000000003</v>
+        <v>46.740250000000017</v>
       </c>
       <c r="H61" s="72">
         <v>70</v>
       </c>
       <c r="I61" s="76">
-        <v>0.66771785714285714</v>
+        <v>0.66771785714285736</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -61251,13 +61251,13 @@
         <v>0</v>
       </c>
       <c r="G62" s="72">
-        <v>40.099749999999993</v>
+        <v>40.09975</v>
       </c>
       <c r="H62" s="72">
         <v>70</v>
       </c>
       <c r="I62" s="76">
-        <v>0.5728535714285713</v>
+        <v>0.57285357142857141</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -61338,13 +61338,13 @@
         <v>0</v>
       </c>
       <c r="G65" s="72">
-        <v>90.966499999999982</v>
+        <v>90.966500000000011</v>
       </c>
       <c r="H65" s="72">
         <v>210</v>
       </c>
       <c r="I65" s="76">
-        <v>0.43317380952380946</v>
+        <v>0.43317380952380957</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -61396,13 +61396,13 @@
         <v>0</v>
       </c>
       <c r="G67" s="72">
-        <v>37.145250000000004</v>
+        <v>37.145249999999997</v>
       </c>
       <c r="H67" s="72">
         <v>70</v>
       </c>
       <c r="I67" s="76">
-        <v>0.53064642857142863</v>
+        <v>0.53064642857142852</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -61425,13 +61425,13 @@
         <v>0</v>
       </c>
       <c r="G68" s="72">
-        <v>195.37700000000004</v>
+        <v>195.37699999999987</v>
       </c>
       <c r="H68" s="72">
         <v>280</v>
       </c>
       <c r="I68" s="76">
-        <v>0.69777500000000015</v>
+        <v>0.69777499999999948</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -61454,13 +61454,13 @@
         <v>0</v>
       </c>
       <c r="G69" s="72">
-        <v>168.48449999999991</v>
+        <v>168.48449999999997</v>
       </c>
       <c r="H69" s="72">
         <v>280</v>
       </c>
       <c r="I69" s="76">
-        <v>0.60173035714285683</v>
+        <v>0.60173035714285705</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -61483,13 +61483,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="72">
-        <v>37.280749999999998</v>
+        <v>37.280750000000005</v>
       </c>
       <c r="H70" s="72">
         <v>70</v>
       </c>
       <c r="I70" s="76">
-        <v>0.53258214285714278</v>
+        <v>0.53258214285714289</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -61541,13 +61541,13 @@
         <v>0</v>
       </c>
       <c r="G72" s="72">
-        <v>45.395250000000004</v>
+        <v>45.395249999999997</v>
       </c>
       <c r="H72" s="72">
         <v>140</v>
       </c>
       <c r="I72" s="76">
-        <v>0.32425178571428576</v>
+        <v>0.3242517857142857</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -61570,13 +61570,13 @@
         <v>0</v>
       </c>
       <c r="G73" s="72">
-        <v>56.678000000000026</v>
+        <v>56.678000000000004</v>
       </c>
       <c r="H73" s="72">
         <v>140</v>
       </c>
       <c r="I73" s="76">
-        <v>0.40484285714285734</v>
+        <v>0.40484285714285717</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -61599,13 +61599,13 @@
         <v>0</v>
       </c>
       <c r="G74" s="72">
-        <v>180.66024999999993</v>
+        <v>180.66024999999996</v>
       </c>
       <c r="H74" s="72">
         <v>280</v>
       </c>
       <c r="I74" s="76">
-        <v>0.64521517857142829</v>
+        <v>0.6452151785714284</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -61628,13 +61628,13 @@
         <v>0</v>
       </c>
       <c r="G75" s="72">
-        <v>88.696749999999994</v>
+        <v>88.696750000000009</v>
       </c>
       <c r="H75" s="72">
         <v>280</v>
       </c>
       <c r="I75" s="76">
-        <v>0.31677410714285714</v>
+        <v>0.3167741071428572</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -61715,13 +61715,13 @@
         <v>0</v>
       </c>
       <c r="G78" s="72">
-        <v>54.029499999999992</v>
+        <v>54.029500000000034</v>
       </c>
       <c r="H78" s="72">
         <v>70</v>
       </c>
       <c r="I78" s="76">
-        <v>0.77184999999999993</v>
+        <v>0.77185000000000048</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -61744,13 +61744,13 @@
         <v>0</v>
       </c>
       <c r="G79" s="72">
-        <v>30.453000000000007</v>
+        <v>30.45300000000001</v>
       </c>
       <c r="H79" s="72">
         <v>70</v>
       </c>
       <c r="I79" s="76">
-        <v>0.43504285714285723</v>
+        <v>0.43504285714285729</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -61773,13 +61773,13 @@
         <v>0</v>
       </c>
       <c r="G80" s="72">
-        <v>77.924750000000003</v>
+        <v>77.924749999999989</v>
       </c>
       <c r="H80" s="72">
         <v>140</v>
       </c>
       <c r="I80" s="76">
-        <v>0.55660535714285719</v>
+        <v>0.55660535714285708</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -61802,13 +61802,13 @@
         <v>0</v>
       </c>
       <c r="G81" s="72">
-        <v>51.402750000000019</v>
+        <v>51.402749999999997</v>
       </c>
       <c r="H81" s="72">
         <v>140</v>
       </c>
       <c r="I81" s="76">
-        <v>0.36716250000000011</v>
+        <v>0.3671625</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -61831,13 +61831,13 @@
         <v>0</v>
       </c>
       <c r="G82" s="72">
-        <v>46.315750000000008</v>
+        <v>46.315749999999994</v>
       </c>
       <c r="H82" s="72">
         <v>70</v>
       </c>
       <c r="I82" s="76">
-        <v>0.66165357142857151</v>
+        <v>0.6616535714285714</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -61860,13 +61860,13 @@
         <v>0</v>
       </c>
       <c r="G83" s="72">
-        <v>32.348750000000003</v>
+        <v>32.348749999999988</v>
       </c>
       <c r="H83" s="72">
         <v>70</v>
       </c>
       <c r="I83" s="76">
-        <v>0.46212500000000006</v>
+        <v>0.46212499999999984</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -61889,13 +61889,13 @@
         <v>0</v>
       </c>
       <c r="G84" s="72">
-        <v>168.25125000000003</v>
+        <v>168.25125</v>
       </c>
       <c r="H84" s="72">
         <v>210</v>
       </c>
       <c r="I84" s="76">
-        <v>0.8011964285714287</v>
+        <v>0.80119642857142859</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -61918,13 +61918,13 @@
         <v>0</v>
       </c>
       <c r="G85" s="72">
-        <v>40.552</v>
+        <v>40.551999999999992</v>
       </c>
       <c r="H85" s="72">
         <v>210</v>
       </c>
       <c r="I85" s="76">
-        <v>0.19310476190476189</v>
+        <v>0.19310476190476186</v>
       </c>
     </row>
   </sheetData>
